--- a/Technology/Hardware/AMD.xlsx
+++ b/Technology/Hardware/AMD.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4A4158C-FFAC-2F41-A8C1-827236A773DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7718E874-663D-4B47-9890-4C456B7F0895}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2522,11 +2522,11 @@
     <v>Powered by Refinitiv</v>
     <v>109.57</v>
     <v>54.57</v>
-    <v>1.9439</v>
-    <v>-1.68</v>
-    <v>-1.8644000000000001E-2</v>
-    <v>-0.11</v>
-    <v>-1.2439999999999999E-3</v>
+    <v>1.9204000000000001</v>
+    <v>-2.11</v>
+    <v>-1.9550000000000001E-2</v>
+    <v>-0.08</v>
+    <v>-7.5600000000000005E-4</v>
     <v>USD</v>
     <v>Advanced Micro Devices, Inc. is a global semiconductor company. The Company operates through four segments: Data Center, Client, Gaming, and Embedded. The Data Center segment includes server central processing units (CPUs) and graphics processing units (GPUs), data processing units (DPUs), field programmable gate arrays (FPGAs) and adaptive system-on-a-chip (SoC) products for data centers. The Client segment includes CPUs, accelerated processing units (APUs) that integrate microprocessors and GPUs (APUs), and chipsets for desktop and notebook personal computers. The Gaming segment includes discrete GPUs, semi-custom SoC products and development services. The Embedded segment, which primarily includes embedded CPUs and GPUs, FPGAs, and adaptive SoC products. The Company’s CPUs for desktop platforms include the AMD Ryzen and AMD Athlon series processors. Its mobile APUs include AMD Ryzen and AMD Athlon mobile processors for the commercial and consumer markets.</v>
     <v>25000</v>
@@ -2534,25 +2534,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>2485 Augustine Drive, SANTA CLARA, CA, 95054 US</v>
-    <v>89.8</v>
+    <v>107.29</v>
     <v>Semiconductors &amp; Semiconductor Equipment</v>
     <v>Stock</v>
-    <v>45037.999973020313</v>
+    <v>45065.96587418906</v>
     <v>0</v>
-    <v>88.055000000000007</v>
-    <v>142319800000</v>
+    <v>104.62009999999999</v>
+    <v>170408506840</v>
     <v>ADVANCED MICRO DEVICES, INC.</v>
     <v>ADVANCED MICRO DEVICES, INC.</v>
-    <v>89.8</v>
-    <v>101.825</v>
-    <v>90.11</v>
-    <v>88.43</v>
-    <v>88.32</v>
-    <v>1609406000</v>
+    <v>106.36</v>
+    <v>549.26210000000003</v>
+    <v>107.93</v>
+    <v>105.82</v>
+    <v>105.74</v>
+    <v>1610362000</v>
     <v>AMD</v>
     <v>ADVANCED MICRO DEVICES, INC. (XNAS:AMD)</v>
-    <v>41118264</v>
-    <v>61767094</v>
+    <v>67860988</v>
+    <v>64233134</v>
     <v>1969</v>
   </rv>
   <rv s="2">
@@ -2717,9 +2717,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -3140,10 +3140,10 @@
   <dimension ref="A1:AV118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AK82" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AL2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AO92" sqref="AO92"/>
+      <selection pane="bottomRight" activeCell="AP13" sqref="AP13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5362,15 +5362,15 @@
       </c>
       <c r="AT16" s="30">
         <f>AU101/AM3</f>
-        <v>6.0302444811660525</v>
+        <v>7.2203934934960383</v>
       </c>
       <c r="AU16" s="30">
         <f>AU101/AM28</f>
-        <v>107.8180303030303</v>
+        <v>129.09735366666666</v>
       </c>
       <c r="AV16" s="31">
         <f>AU101/AM106</f>
-        <v>39.921402524544177</v>
+        <v>47.800422676016829</v>
       </c>
     </row>
     <row r="17" spans="1:45" ht="19" x14ac:dyDescent="0.25">
@@ -15040,7 +15040,7 @@
       </c>
       <c r="AU95" s="58" cm="1">
         <f t="array" ref="AU95">_FV(A1,"Beta")</f>
-        <v>1.9439</v>
+        <v>1.9204000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15291,7 +15291,7 @@
       </c>
       <c r="AU97" s="36">
         <f>(AU94)+((AU95)*(AU96-AU94))</f>
-        <v>0.12463489500000001</v>
+        <v>0.12362322000000002</v>
       </c>
     </row>
     <row r="98" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -15666,7 +15666,7 @@
       </c>
       <c r="AU100" s="34">
         <f>AU99/AU103</f>
-        <v>1.9719966828026462E-2</v>
+        <v>1.6523201374613265E-2</v>
       </c>
     </row>
     <row r="101" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15792,7 +15792,7 @@
       </c>
       <c r="AU101" s="49" cm="1">
         <f t="array" ref="AU101">_FV(A1,"Market cap",TRUE)</f>
-        <v>142319800000</v>
+        <v>170408506840</v>
       </c>
     </row>
     <row r="102" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15918,7 +15918,7 @@
       </c>
       <c r="AU102" s="34">
         <f>AU101/AU103</f>
-        <v>0.98028003317197354</v>
+        <v>0.98347679862538673</v>
       </c>
     </row>
     <row r="103" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -16044,7 +16044,7 @@
       </c>
       <c r="AU103" s="38">
         <f>AU99+AU101</f>
-        <v>145182800000</v>
+        <v>173271506840</v>
       </c>
     </row>
     <row r="104" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -16334,7 +16334,7 @@
       </c>
       <c r="AU105" s="26">
         <f>(AU100*AU92)+(AU102*AU97)</f>
-        <v>0.12284568762269753</v>
+        <v>0.12214077365912746</v>
       </c>
     </row>
     <row r="106" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -16532,7 +16532,7 @@
       <c r="AQ107" s="39"/>
       <c r="AR107" s="42">
         <f>AR106*(1+AU107)/(AU108-AU107)</f>
-        <v>71929633673.672424</v>
+        <v>72511499097.192688</v>
       </c>
       <c r="AS107" s="43" t="s">
         <v>148</v>
@@ -16563,7 +16563,7 @@
       </c>
       <c r="AR108" s="42">
         <f>AR107+AR106</f>
-        <v>78034665683.829422</v>
+        <v>78616531107.349686</v>
       </c>
       <c r="AS108" s="43" t="s">
         <v>144</v>
@@ -16573,7 +16573,7 @@
       </c>
       <c r="AU108" s="47">
         <f>AU105</f>
-        <v>0.12284568762269753</v>
+        <v>0.12214077365912746</v>
       </c>
     </row>
     <row r="109" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -16588,7 +16588,7 @@
       </c>
       <c r="AO110" s="49">
         <f>NPV(AU108,AN108,AO108,AP108,AQ108,AR108)</f>
-        <v>57689285116.532959</v>
+        <v>58175670359.215759</v>
       </c>
     </row>
     <row r="111" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -16615,7 +16615,7 @@
       </c>
       <c r="AO113" s="49">
         <f>AO110+AO111-AO112</f>
-        <v>60681285116.532959</v>
+        <v>61167670359.215759</v>
       </c>
     </row>
     <row r="114" spans="40:41" ht="20" x14ac:dyDescent="0.25">
@@ -16624,7 +16624,7 @@
       </c>
       <c r="AO114" s="50" cm="1">
         <f t="array" ref="AO114">_FV(A1,"Shares outstanding",TRUE)</f>
-        <v>1609406000</v>
+        <v>1610362000</v>
       </c>
     </row>
     <row r="115" spans="40:41" ht="20" x14ac:dyDescent="0.25">
@@ -16633,7 +16633,7 @@
       </c>
       <c r="AO115" s="52">
         <f>AO113/AO114</f>
-        <v>37.704149926452963</v>
+        <v>37.983801380817333</v>
       </c>
     </row>
     <row r="116" spans="40:41" ht="20" x14ac:dyDescent="0.25">
@@ -16642,7 +16642,7 @@
       </c>
       <c r="AO116" s="57" cm="1">
         <f t="array" ref="AO116">_FV(A1,"Price")</f>
-        <v>88.43</v>
+        <v>105.82</v>
       </c>
     </row>
     <row r="117" spans="40:41" ht="20" x14ac:dyDescent="0.25">
@@ -16651,7 +16651,7 @@
       </c>
       <c r="AO117" s="54">
         <f>AO115/AO116-1</f>
-        <v>-0.5736271635592789</v>
+        <v>-0.64105271800399422</v>
       </c>
     </row>
     <row r="118" spans="40:41" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Hardware/AMD.xlsx
+++ b/Technology/Hardware/AMD.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7718E874-663D-4B47-9890-4C456B7F0895}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFF523B8-C571-264F-861E-61712F688AFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2520,13 +2520,11 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>109.57</v>
+    <v>132.83000000000001</v>
     <v>54.57</v>
-    <v>1.9204000000000001</v>
-    <v>-2.11</v>
-    <v>-1.9550000000000001E-2</v>
-    <v>-0.08</v>
-    <v>-7.5600000000000005E-4</v>
+    <v>1.87</v>
+    <v>-1.41</v>
+    <v>-1.2577E-2</v>
     <v>USD</v>
     <v>Advanced Micro Devices, Inc. is a global semiconductor company. The Company operates through four segments: Data Center, Client, Gaming, and Embedded. The Data Center segment includes server central processing units (CPUs) and graphics processing units (GPUs), data processing units (DPUs), field programmable gate arrays (FPGAs) and adaptive system-on-a-chip (SoC) products for data centers. The Client segment includes CPUs, accelerated processing units (APUs) that integrate microprocessors and GPUs (APUs), and chipsets for desktop and notebook personal computers. The Gaming segment includes discrete GPUs, semi-custom SoC products and development services. The Embedded segment, which primarily includes embedded CPUs and GPUs, FPGAs, and adaptive SoC products. The Company’s CPUs for desktop platforms include the AMD Ryzen and AMD Athlon series processors. Its mobile APUs include AMD Ryzen and AMD Athlon mobile processors for the commercial and consumer markets.</v>
     <v>25000</v>
@@ -2534,25 +2532,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>2485 Augustine Drive, SANTA CLARA, CA, 95054 US</v>
-    <v>107.29</v>
+    <v>114</v>
     <v>Semiconductors &amp; Semiconductor Equipment</v>
     <v>Stock</v>
-    <v>45065.96587418906</v>
+    <v>45099.999992221878</v>
     <v>0</v>
-    <v>104.62009999999999</v>
-    <v>170408506840</v>
+    <v>109.85</v>
+    <v>178267073400</v>
     <v>ADVANCED MICRO DEVICES, INC.</v>
     <v>ADVANCED MICRO DEVICES, INC.</v>
-    <v>106.36</v>
-    <v>549.26210000000003</v>
-    <v>107.93</v>
-    <v>105.82</v>
-    <v>105.74</v>
+    <v>112.24</v>
+    <v>563.35879999999997</v>
+    <v>112.11</v>
+    <v>110.7</v>
     <v>1610362000</v>
     <v>AMD</v>
     <v>ADVANCED MICRO DEVICES, INC. (XNAS:AMD)</v>
-    <v>67860988</v>
-    <v>64233134</v>
+    <v>143940</v>
+    <v>79683840</v>
     <v>1969</v>
   </rv>
   <rv s="2">
@@ -2584,8 +2581,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2606,7 +2601,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2623,7 +2617,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="45">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2634,16 +2628,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2709,19 +2700,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2766,9 +2751,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2776,9 +2758,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -3140,10 +3119,10 @@
   <dimension ref="A1:AV118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AL2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AK89" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AP13" sqref="AP13"/>
+      <selection pane="bottomRight" activeCell="AO100" sqref="AO100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5362,15 +5341,15 @@
       </c>
       <c r="AT16" s="30">
         <f>AU101/AM3</f>
-        <v>7.2203934934960383</v>
+        <v>7.553369492818101</v>
       </c>
       <c r="AU16" s="30">
         <f>AU101/AM28</f>
-        <v>129.09735366666666</v>
+        <v>135.05081318181817</v>
       </c>
       <c r="AV16" s="31">
         <f>AU101/AM106</f>
-        <v>47.800422676016829</v>
+        <v>50.00478917251052</v>
       </c>
     </row>
     <row r="17" spans="1:45" ht="19" x14ac:dyDescent="0.25">
@@ -15040,7 +15019,7 @@
       </c>
       <c r="AU95" s="58" cm="1">
         <f t="array" ref="AU95">_FV(A1,"Beta")</f>
-        <v>1.9204000000000001</v>
+        <v>1.87</v>
       </c>
     </row>
     <row r="96" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15291,7 +15270,7 @@
       </c>
       <c r="AU97" s="36">
         <f>(AU94)+((AU95)*(AU96-AU94))</f>
-        <v>0.12362322000000002</v>
+        <v>0.12145350000000002</v>
       </c>
     </row>
     <row r="98" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -15666,7 +15645,7 @@
       </c>
       <c r="AU100" s="34">
         <f>AU99/AU103</f>
-        <v>1.6523201374613265E-2</v>
+        <v>1.5806320542240779E-2</v>
       </c>
     </row>
     <row r="101" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15792,7 +15771,7 @@
       </c>
       <c r="AU101" s="49" cm="1">
         <f t="array" ref="AU101">_FV(A1,"Market cap",TRUE)</f>
-        <v>170408506840</v>
+        <v>178267073400</v>
       </c>
     </row>
     <row r="102" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15918,7 +15897,7 @@
       </c>
       <c r="AU102" s="34">
         <f>AU101/AU103</f>
-        <v>0.98347679862538673</v>
+        <v>0.98419367945775926</v>
       </c>
     </row>
     <row r="103" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -16044,7 +16023,7 @@
       </c>
       <c r="AU103" s="38">
         <f>AU99+AU101</f>
-        <v>173271506840</v>
+        <v>181130073400</v>
       </c>
     </row>
     <row r="104" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -16334,7 +16313,7 @@
       </c>
       <c r="AU105" s="26">
         <f>(AU100*AU92)+(AU102*AU97)</f>
-        <v>0.12214077365912746</v>
+        <v>0.12006966683399176</v>
       </c>
     </row>
     <row r="106" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -16532,7 +16511,7 @@
       <c r="AQ107" s="39"/>
       <c r="AR107" s="42">
         <f>AR106*(1+AU107)/(AU108-AU107)</f>
-        <v>72511499097.192688</v>
+        <v>74276864664.852448</v>
       </c>
       <c r="AS107" s="43" t="s">
         <v>148</v>
@@ -16563,7 +16542,7 @@
       </c>
       <c r="AR108" s="42">
         <f>AR107+AR106</f>
-        <v>78616531107.349686</v>
+        <v>80381896675.009445</v>
       </c>
       <c r="AS108" s="43" t="s">
         <v>144</v>
@@ -16573,7 +16552,7 @@
       </c>
       <c r="AU108" s="47">
         <f>AU105</f>
-        <v>0.12214077365912746</v>
+        <v>0.12006966683399176</v>
       </c>
     </row>
     <row r="109" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -16588,7 +16567,7 @@
       </c>
       <c r="AO110" s="49">
         <f>NPV(AU108,AN108,AO108,AP108,AQ108,AR108)</f>
-        <v>58175670359.215759</v>
+        <v>59651645384.181602</v>
       </c>
     </row>
     <row r="111" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -16615,7 +16594,7 @@
       </c>
       <c r="AO113" s="49">
         <f>AO110+AO111-AO112</f>
-        <v>61167670359.215759</v>
+        <v>62643645384.181602</v>
       </c>
     </row>
     <row r="114" spans="40:41" ht="20" x14ac:dyDescent="0.25">
@@ -16633,7 +16612,7 @@
       </c>
       <c r="AO115" s="52">
         <f>AO113/AO114</f>
-        <v>37.983801380817333</v>
+        <v>38.900349973596995</v>
       </c>
     </row>
     <row r="116" spans="40:41" ht="20" x14ac:dyDescent="0.25">
@@ -16642,7 +16621,7 @@
       </c>
       <c r="AO116" s="57" cm="1">
         <f t="array" ref="AO116">_FV(A1,"Price")</f>
-        <v>105.82</v>
+        <v>110.7</v>
       </c>
     </row>
     <row r="117" spans="40:41" ht="20" x14ac:dyDescent="0.25">
@@ -16651,7 +16630,7 @@
       </c>
       <c r="AO117" s="54">
         <f>AO115/AO116-1</f>
-        <v>-0.64105271800399422</v>
+        <v>-0.64859665787175258</v>
       </c>
     </row>
     <row r="118" spans="40:41" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Hardware/AMD.xlsx
+++ b/Technology/Hardware/AMD.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFF523B8-C571-264F-861E-61712F688AFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2D024E8-CE8A-F24A-961B-C59DC75B40DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="22540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -70,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1255" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1262" uniqueCount="167">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -342,9 +345,6 @@
     <t>Cash at the End of Period</t>
   </si>
   <si>
-    <t>Free Cash Flow</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -391,9 +391,6 @@
   </si>
   <si>
     <t>Income Tax Expense</t>
-  </si>
-  <si>
-    <t>FCF Growth YoY</t>
   </si>
   <si>
     <t>WACC</t>
@@ -510,9 +507,6 @@
     <t>WACC Calculation</t>
   </si>
   <si>
-    <t>Proj. Free Cash Flow</t>
-  </si>
-  <si>
     <t>FCF Growth Rate</t>
   </si>
   <si>
@@ -549,18 +543,50 @@
     <t>Buy/Sell</t>
   </si>
   <si>
-    <t>Shares (No dilution)</t>
+    <t>Unlevered FCF Proj</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Forecast</t>
+  </si>
+  <si>
+    <t>Forward P/S</t>
+  </si>
+  <si>
+    <t>Forward P/E</t>
+  </si>
+  <si>
+    <t>Forward P/FCF</t>
+  </si>
+  <si>
+    <t>Dividend Yield</t>
+  </si>
+  <si>
+    <t>FCF Yield</t>
+  </si>
+  <si>
+    <t>Unlevered FCF</t>
+  </si>
+  <si>
+    <t>Levered FCF Growth YoY</t>
+  </si>
+  <si>
+    <t>Levered FCF</t>
+  </si>
+  <si>
+    <t>Shares (5% dilution)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="170" formatCode="0.0"/>
+    <numFmt numFmtId="171" formatCode="0.0%"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -723,7 +749,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -829,22 +855,13 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top/>
       <bottom style="thin">
@@ -852,47 +869,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -934,20 +916,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -956,75 +930,92 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="16" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="39" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="16" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="39" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="171" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1115,10 +1106,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.5390444810543642E-2"/>
-          <c:y val="0.11972079992733149"/>
-          <c:w val="0.86189126853377263"/>
-          <c:h val="0.74944681095190968"/>
+          <c:x val="9.8570016474464575E-2"/>
+          <c:y val="0.14235631229828011"/>
+          <c:w val="0.84343986820428341"/>
+          <c:h val="0.65397904404762752"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1482,11 +1473,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$106:$B$106</c:f>
+              <c:f>'Sheet 1'!$A$107:$B$107</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Free Cash Flow</c:v>
+                  <c:v>Levered FCF</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>- -</c:v>
@@ -1529,7 +1520,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$C$106:$AM$106</c:f>
+              <c:f>'Sheet 1'!$C$107:$AM$107</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
                 <c:ptCount val="37"/>
@@ -1718,6 +1709,7 @@
         <c:axId val="1305630256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1781,8 +1773,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.32524349777529871"/>
-          <c:y val="0.90164297768789825"/>
+          <c:x val="0.33446919794004332"/>
+          <c:y val="0.90164293811088847"/>
           <c:w val="0.36269247233716873"/>
           <c:h val="4.9783858984840008E-2"/>
         </c:manualLayout>
@@ -2366,13 +2358,13 @@
       <xdr:col>41</xdr:col>
       <xdr:colOff>15874</xdr:colOff>
       <xdr:row>108</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:rowOff>25399</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>47</xdr:col>
       <xdr:colOff>31749</xdr:colOff>
-      <xdr:row>131</xdr:row>
-      <xdr:rowOff>31749</xdr:rowOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2398,6 +2390,70 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Factor Scoring"/>
+      <sheetName val="Factor Investing"/>
+      <sheetName val="Concentrated"/>
+      <sheetName val="Hardware"/>
+      <sheetName val="Software"/>
+      <sheetName val="Consumer"/>
+      <sheetName val="Financial Services"/>
+      <sheetName val="Healthcare"/>
+      <sheetName val="Industrials"/>
+      <sheetName val="Real Estate"/>
+      <sheetName val="Fashion + Beauty"/>
+      <sheetName val="Treasuries"/>
+      <sheetName val="All Stars"/>
+      <sheetName val="ROIC Port"/>
+      <sheetName val="To Be Modeled"/>
+      <sheetName val="My Holdings"/>
+      <sheetName val="My Stocks"/>
+      <sheetName val="Stable Growth"/>
+      <sheetName val="High Growth"/>
+      <sheetName val="Small Caps"/>
+      <sheetName val="Compounders"/>
+      <sheetName val="Private Companies"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11">
+        <row r="8">
+          <cell r="C8">
+            <v>4.0410000000000001E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2522,9 +2578,11 @@
     <v>Powered by Refinitiv</v>
     <v>132.83000000000001</v>
     <v>54.57</v>
-    <v>1.87</v>
-    <v>-1.41</v>
-    <v>-1.2577E-2</v>
+    <v>1.8337000000000001</v>
+    <v>-0.31</v>
+    <v>-2.7320000000000001E-3</v>
+    <v>-0.17</v>
+    <v>-1.5020000000000001E-3</v>
     <v>USD</v>
     <v>Advanced Micro Devices, Inc. is a global semiconductor company. The Company operates through four segments: Data Center, Client, Gaming, and Embedded. The Data Center segment includes server central processing units (CPUs) and graphics processing units (GPUs), data processing units (DPUs), field programmable gate arrays (FPGAs) and adaptive system-on-a-chip (SoC) products for data centers. The Client segment includes CPUs, accelerated processing units (APUs) that integrate microprocessors and GPUs (APUs), and chipsets for desktop and notebook personal computers. The Gaming segment includes discrete GPUs, semi-custom SoC products and development services. The Embedded segment, which primarily includes embedded CPUs and GPUs, FPGAs, and adaptive SoC products. The Company’s CPUs for desktop platforms include the AMD Ryzen and AMD Athlon series processors. Its mobile APUs include AMD Ryzen and AMD Athlon mobile processors for the commercial and consumer markets.</v>
     <v>25000</v>
@@ -2532,24 +2590,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>2485 Augustine Drive, SANTA CLARA, CA, 95054 US</v>
-    <v>114</v>
+    <v>115.33</v>
     <v>Semiconductors &amp; Semiconductor Equipment</v>
     <v>Stock</v>
-    <v>45099.999992221878</v>
+    <v>45114.999995983591</v>
     <v>0</v>
-    <v>109.85</v>
-    <v>178267073400</v>
+    <v>113.04</v>
+    <v>182244700000</v>
     <v>ADVANCED MICRO DEVICES, INC.</v>
     <v>ADVANCED MICRO DEVICES, INC.</v>
-    <v>112.24</v>
-    <v>563.35879999999997</v>
-    <v>112.11</v>
-    <v>110.7</v>
+    <v>114.16</v>
+    <v>577.50639999999999</v>
+    <v>113.48</v>
+    <v>113.17</v>
+    <v>113</v>
     <v>1610362000</v>
     <v>AMD</v>
     <v>ADVANCED MICRO DEVICES, INC. (XNAS:AMD)</v>
-    <v>143940</v>
-    <v>79683840</v>
+    <v>37211287</v>
+    <v>70183544</v>
     <v>1969</v>
   </rv>
   <rv s="2">
@@ -2581,6 +2640,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2601,6 +2662,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2617,7 +2679,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2628,13 +2690,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2700,13 +2765,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2751,6 +2822,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2758,6 +2832,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -3119,10 +3196,10 @@
   <dimension ref="A1:AV118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AK89" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AB63" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AO100" sqref="AO100"/>
+      <selection pane="bottomRight" activeCell="AO94" sqref="AO94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3250,19 +3327,19 @@
       <c r="AM1" s="8">
         <v>2022</v>
       </c>
-      <c r="AN1" s="27">
+      <c r="AN1" s="23">
         <v>2023</v>
       </c>
-      <c r="AO1" s="27">
+      <c r="AO1" s="23">
         <v>2024</v>
       </c>
-      <c r="AP1" s="27">
+      <c r="AP1" s="23">
         <v>2025</v>
       </c>
-      <c r="AQ1" s="27">
+      <c r="AQ1" s="23">
         <v>2026</v>
       </c>
-      <c r="AR1" s="27">
+      <c r="AR1" s="23">
         <v>2027</v>
       </c>
     </row>
@@ -3271,127 +3348,127 @@
         <v>0</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AA2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AB2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AC2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AD2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AE2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AF2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AG2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AI2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AJ2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AK2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AL2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AM2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AN2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AO2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AP2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AQ2" s="9"/>
       <c r="AR2" s="9"/>
@@ -3405,7 +3482,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C3" s="1">
         <v>576100000</v>
@@ -3518,37 +3595,37 @@
       <c r="AM3" s="1">
         <v>23601000000</v>
       </c>
-      <c r="AN3" s="28">
-        <v>23624000000</v>
-      </c>
-      <c r="AO3" s="28">
-        <v>27317000000</v>
-      </c>
-      <c r="AP3" s="28">
-        <v>30953000000</v>
-      </c>
-      <c r="AQ3" s="28">
-        <v>36669000000</v>
-      </c>
-      <c r="AR3" s="28">
-        <v>40075000000</v>
+      <c r="AN3" s="24">
+        <v>22691000000</v>
+      </c>
+      <c r="AO3" s="24">
+        <v>26990000000</v>
+      </c>
+      <c r="AP3" s="24">
+        <v>30530000000</v>
+      </c>
+      <c r="AQ3" s="24">
+        <v>38364000000</v>
+      </c>
+      <c r="AR3" s="24">
+        <v>42502000000</v>
       </c>
       <c r="AS3" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="AT3" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="AU3" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="AT3" s="19" t="s">
+      <c r="AV3" s="19" t="s">
         <v>110</v>
-      </c>
-      <c r="AU3" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="AV3" s="19" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="15" t="e">
@@ -3701,23 +3778,23 @@
       </c>
       <c r="AN4" s="16">
         <f t="shared" si="13"/>
-        <v>9.745349773315759E-4</v>
+        <v>-3.8557688233549436E-2</v>
       </c>
       <c r="AO4" s="16">
         <f t="shared" si="13"/>
-        <v>0.15632407720961727</v>
+        <v>0.18945837556740552</v>
       </c>
       <c r="AP4" s="16">
         <f t="shared" si="13"/>
-        <v>0.13310392795694992</v>
+        <v>0.13115968877361994</v>
       </c>
       <c r="AQ4" s="16">
         <f t="shared" si="13"/>
-        <v>0.18466707588925146</v>
+        <v>0.25660006550933501</v>
       </c>
       <c r="AR4" s="16">
         <f t="shared" si="13"/>
-        <v>9.2884998227385607E-2</v>
+        <v>0.10786153685747046</v>
       </c>
       <c r="AS4" s="17">
         <f>(AM4+AL4+AK4)/3</f>
@@ -3732,7 +3809,7 @@
         <v>1.9964632031662963</v>
       </c>
       <c r="AV4" s="17">
-        <f>(AM105+AL105+AK105)/3</f>
+        <f>(AM106+AL106+AK106)/3</f>
         <v>1.6888347975304498</v>
       </c>
     </row>
@@ -3741,7 +3818,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C5" s="1">
         <v>235000000</v>
@@ -3860,7 +3937,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C6" s="10">
         <v>341100000</v>
@@ -3974,16 +4051,16 @@
         <v>10603000000</v>
       </c>
       <c r="AS6" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="AT6" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="AU6" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="AT6" s="19" t="s">
+      <c r="AV6" s="19" t="s">
         <v>114</v>
-      </c>
-      <c r="AU6" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="AV6" s="19" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -3991,7 +4068,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C7" s="2">
         <v>0.59209999999999996</v>
@@ -4117,7 +4194,7 @@
         <v>5.5899999999999998E-2</v>
       </c>
       <c r="AV7" s="20">
-        <f>AM106/AM3</f>
+        <f>AM107/AM3</f>
         <v>0.15105292148637769</v>
       </c>
     </row>
@@ -4126,28 +4203,28 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J8" s="1">
         <v>262802000</v>
@@ -4242,7 +4319,7 @@
     </row>
     <row r="9" spans="1:48" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B9" s="15" t="e">
         <f>B8/B3</f>
@@ -4397,16 +4474,16 @@
         <v>0.21206728528452184</v>
       </c>
       <c r="AS9" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="AT9" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="AT9" s="19" t="s">
+      <c r="AU9" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="AU9" s="19" t="s">
+      <c r="AV9" s="19" t="s">
         <v>98</v>
-      </c>
-      <c r="AV9" s="19" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -4414,118 +4491,118 @@
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AS10" s="17">
         <f>AM9</f>
@@ -4549,118 +4626,118 @@
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:48" ht="20" x14ac:dyDescent="0.25">
@@ -4668,7 +4745,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C12" s="1">
         <v>306100000</v>
@@ -4782,21 +4859,21 @@
         <v>2336000000</v>
       </c>
       <c r="AS12" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="AT12" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="AU12" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="AT12" s="19" t="s">
+      <c r="AV12" s="19" t="s">
         <v>118</v>
-      </c>
-      <c r="AU12" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="AV12" s="19" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B13" s="15" t="e">
         <f>B12/B3</f>
@@ -4972,7 +5049,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C14" s="1">
         <v>112800000</v>
@@ -4996,43 +5073,43 @@
         <v>152300000</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K14" s="1">
         <v>41000</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U14" s="1">
         <v>1000000</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W14" s="1">
         <v>79000000</v>
@@ -5071,13 +5148,13 @@
         <v>-52000000</v>
       </c>
       <c r="AI14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ14" s="1">
         <v>-60000000</v>
       </c>
       <c r="AK14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL14" s="1">
         <v>-12000000</v>
@@ -5091,7 +5168,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C15" s="1">
         <v>418900000</v>
@@ -5205,16 +5282,16 @@
         <v>9339000000</v>
       </c>
       <c r="AS15" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="AT15" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="AU15" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="AT15" s="19" t="s">
+      <c r="AV15" s="19" t="s">
         <v>122</v>
-      </c>
-      <c r="AU15" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="AV15" s="19" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -5222,7 +5299,7 @@
         <v>11</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C16" s="1">
         <v>653900000</v>
@@ -5335,98 +5412,98 @@
       <c r="AM16" s="1">
         <v>22337000000</v>
       </c>
-      <c r="AS16" s="29">
+      <c r="AS16" s="25">
         <f>(AM35+AL35+AK35+AJ35+AI35)/5</f>
         <v>9.0174755504254453E-2</v>
       </c>
-      <c r="AT16" s="30">
+      <c r="AT16" s="26">
         <f>AU101/AM3</f>
-        <v>7.553369492818101</v>
-      </c>
-      <c r="AU16" s="30">
+        <v>7.7219058514469729</v>
+      </c>
+      <c r="AU16" s="26">
         <f>AU101/AM28</f>
-        <v>135.05081318181817</v>
-      </c>
-      <c r="AV16" s="31">
-        <f>AU101/AM106</f>
-        <v>50.00478917251052</v>
+        <v>138.06416666666667</v>
+      </c>
+      <c r="AV16" s="27">
+        <f>AU101/AM107</f>
+        <v>51.120532959326788</v>
       </c>
     </row>
-    <row r="17" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z17" s="1">
         <v>438000000</v>
@@ -5471,12 +5548,12 @@
         <v>88000000</v>
       </c>
     </row>
-    <row r="18" spans="1:45" ht="20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:48" ht="20" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C18" s="1">
         <v>112800000</v>
@@ -5590,15 +5667,24 @@
         <v>2100000000</v>
       </c>
       <c r="AS18" s="18" t="s">
-        <v>125</v>
+        <v>123</v>
+      </c>
+      <c r="AT18" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="AU18" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="AV18" s="19" t="s">
+        <v>160</v>
       </c>
     </row>
-    <row r="19" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C19" s="10">
         <v>28100000</v>
@@ -5711,14 +5797,41 @@
       <c r="AM19" s="10">
         <v>3386000000</v>
       </c>
-      <c r="AS19" s="32">
+      <c r="AN19" s="64">
+        <v>5826000000</v>
+      </c>
+      <c r="AO19" s="64">
+        <v>8712000000</v>
+      </c>
+      <c r="AP19" s="64">
+        <v>10619000000</v>
+      </c>
+      <c r="AQ19" s="64">
+        <v>15262000000</v>
+      </c>
+      <c r="AR19" s="64">
+        <v>17971000000</v>
+      </c>
+      <c r="AS19" s="28">
         <f>AM40-AM56-AM61</f>
         <v>2992000000</v>
       </c>
+      <c r="AT19" s="59">
+        <f>AU101/AN3</f>
+        <v>8.0315852099951517</v>
+      </c>
+      <c r="AU19" s="60">
+        <f>AO116/AN31</f>
+        <v>39.159169550173011</v>
+      </c>
+      <c r="AV19" s="61">
+        <f>AU101/AN106</f>
+        <v>38.907920580700257</v>
+      </c>
     </row>
-    <row r="20" spans="1:45" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:48" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="15" t="e">
@@ -5866,16 +5979,36 @@
         <v>1.4818560380725758</v>
       </c>
       <c r="AM20" s="15">
-        <f t="shared" ref="AM20" si="34">(AM19/AL19)-1</f>
+        <f t="shared" ref="AM20:AR20" si="34">(AM19/AL19)-1</f>
         <v>-0.18839884947267493</v>
       </c>
+      <c r="AN20" s="16">
+        <f t="shared" si="34"/>
+        <v>0.72061429415239231</v>
+      </c>
+      <c r="AO20" s="16">
+        <f t="shared" si="34"/>
+        <v>0.4953656024716786</v>
+      </c>
+      <c r="AP20" s="16">
+        <f t="shared" si="34"/>
+        <v>0.21889348025711652</v>
+      </c>
+      <c r="AQ20" s="16">
+        <f t="shared" si="34"/>
+        <v>0.43723514455221779</v>
+      </c>
+      <c r="AR20" s="16">
+        <f t="shared" si="34"/>
+        <v>0.17749967238893993</v>
+      </c>
     </row>
-    <row r="21" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:48" ht="20" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C21" s="2">
         <v>4.8800000000000003E-2</v>
@@ -5988,13 +6121,39 @@
       <c r="AM21" s="2">
         <v>0.14349999999999999</v>
       </c>
+      <c r="AN21" s="65">
+        <f>AN19/AN3</f>
+        <v>0.25675377903133401</v>
+      </c>
+      <c r="AO21" s="65">
+        <f t="shared" ref="AO21:AR21" si="35">AO19/AO3</f>
+        <v>0.32278621711745092</v>
+      </c>
+      <c r="AP21" s="65">
+        <f t="shared" si="35"/>
+        <v>0.34782181460858175</v>
+      </c>
+      <c r="AQ21" s="65">
+        <f t="shared" si="35"/>
+        <v>0.397820873735794</v>
+      </c>
+      <c r="AR21" s="65">
+        <f t="shared" si="35"/>
+        <v>0.42282716107477297</v>
+      </c>
+      <c r="AU21" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="AV21" s="19" t="s">
+        <v>162</v>
+      </c>
     </row>
-    <row r="22" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C22" s="10">
         <v>-77800000</v>
@@ -6107,13 +6266,21 @@
       <c r="AM22" s="10">
         <v>1264000000</v>
       </c>
+      <c r="AU22" s="62" t="e">
+        <f>(-1*AM98)/AU101</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AV22" s="63">
+        <f>AM107/AU101</f>
+        <v>1.9561611393911594E-2</v>
+      </c>
     </row>
-    <row r="23" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C23" s="2">
         <v>-0.13500000000000001</v>
@@ -6227,12 +6394,12 @@
         <v>5.3600000000000002E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C24" s="1">
         <v>-6900000</v>
@@ -6346,12 +6513,12 @@
         <v>-80000000</v>
       </c>
     </row>
-    <row r="25" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C25" s="10">
         <v>-84700000</v>
@@ -6360,16 +6527,16 @@
         <v>-45600000</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F25" s="10">
         <v>49900000</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I25" s="10">
         <v>271600000</v>
@@ -6465,12 +6632,12 @@
         <v>1184000000</v>
       </c>
     </row>
-    <row r="26" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C26" s="2">
         <v>-0.14699999999999999</v>
@@ -6479,16 +6646,16 @@
         <v>-4.5699999999999998E-2</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F26" s="2">
         <v>4.5199999999999997E-2</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I26" s="2">
         <v>0.17929999999999999</v>
@@ -6584,12 +6751,12 @@
         <v>5.0200000000000002E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C27" s="1">
         <v>-48100000</v>
@@ -6598,16 +6765,16 @@
         <v>2500000</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F27" s="1">
         <v>3800000</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I27" s="1">
         <v>26600000</v>
@@ -6700,15 +6867,15 @@
         <v>513000000</v>
       </c>
       <c r="AM27" s="1">
-        <v>-122000000</v>
+        <v>122000000</v>
       </c>
     </row>
-    <row r="28" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:48" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C28" s="11">
         <v>-36600000</v>
@@ -6821,10 +6988,25 @@
       <c r="AM28" s="11">
         <v>1320000000</v>
       </c>
+      <c r="AN28" s="66">
+        <v>4657000000</v>
+      </c>
+      <c r="AO28" s="66">
+        <v>6553000000</v>
+      </c>
+      <c r="AP28" s="66">
+        <v>8168000000</v>
+      </c>
+      <c r="AQ28" s="66">
+        <v>13390000000</v>
+      </c>
+      <c r="AR28" s="66">
+        <v>14979000000</v>
+      </c>
     </row>
-    <row r="29" spans="1:45" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:48" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="15" t="e">
@@ -6840,148 +7022,168 @@
         <v>-1.4012474012474012</v>
       </c>
       <c r="F29" s="15">
-        <f t="shared" ref="F29:U29" si="35">(F28/E28)-1</f>
+        <f t="shared" ref="F29:U29" si="36">(F28/E28)-1</f>
         <v>1.3886010362694301</v>
       </c>
       <c r="G29" s="15">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>-2.162689804772234</v>
       </c>
       <c r="H29" s="15">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>-3.7108208955223883</v>
       </c>
       <c r="I29" s="15">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.68616655196145904</v>
       </c>
       <c r="J29" s="15">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>-6.6200000000000037E-2</v>
       </c>
       <c r="K29" s="15">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.33431534961382292</v>
       </c>
       <c r="L29" s="15">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>-1.5543820798909813E-2</v>
       </c>
       <c r="M29" s="15">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>-1.2294348814225962</v>
       </c>
       <c r="N29" s="15">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>-0.69412617839013779</v>
       </c>
       <c r="O29" s="15">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>3.9293504030346131</v>
       </c>
       <c r="P29" s="15">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>-0.14451712196998845</v>
       </c>
       <c r="Q29" s="15">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>-12.053184312314473</v>
       </c>
       <c r="R29" s="15">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>-1.0616270576770095</v>
       </c>
       <c r="S29" s="15">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>20.50859180271042</v>
       </c>
       <c r="T29" s="15">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>-0.78934192470982611</v>
       </c>
       <c r="U29" s="15">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>-1.3320922437975882</v>
       </c>
       <c r="V29" s="15">
-        <f t="shared" ref="V29" si="36">(V28/U28)-1</f>
+        <f t="shared" ref="V29" si="37">(V28/U28)-1</f>
         <v>0.8153824213436307</v>
       </c>
       <c r="W29" s="15">
-        <f t="shared" ref="W29" si="37">(W28/V28)-1</f>
+        <f t="shared" ref="W29" si="38">(W28/V28)-1</f>
         <v>-2.0031241879830555</v>
       </c>
       <c r="X29" s="15">
-        <f t="shared" ref="X29" si="38">(X28/W28)-1</f>
+        <f t="shared" ref="X29" si="39">(X28/W28)-1</f>
         <v>19.35542168674699</v>
       </c>
       <c r="Y29" s="15">
-        <f t="shared" ref="Y29" si="39">(Y28/X28)-1</f>
+        <f t="shared" ref="Y29" si="40">(Y28/X28)-1</f>
         <v>-8.3160698431488655E-2</v>
       </c>
       <c r="Z29" s="15">
-        <f t="shared" ref="Z29" si="40">(Z28/Y28)-1</f>
+        <f t="shared" ref="Z29" si="41">(Z28/Y28)-1</f>
         <v>-1.1213686249193029</v>
       </c>
       <c r="AA29" s="15">
-        <f t="shared" ref="AA29" si="41">(AA28/Z28)-1</f>
+        <f t="shared" ref="AA29" si="42">(AA28/Z28)-1</f>
         <v>0.25265957446808507</v>
       </c>
       <c r="AB29" s="15">
-        <f t="shared" ref="AB29" si="42">(AB28/AA28)-1</f>
+        <f t="shared" ref="AB29" si="43">(AB28/AA28)-1</f>
         <v>4.2462845010615702E-2</v>
       </c>
       <c r="AC29" s="15">
-        <f t="shared" ref="AC29" si="43">(AC28/AB28)-1</f>
+        <f t="shared" ref="AC29" si="44">(AC28/AB28)-1</f>
         <v>-3.409368635437882</v>
       </c>
       <c r="AD29" s="15">
-        <f t="shared" ref="AD29" si="44">(AD28/AC28)-1</f>
+        <f t="shared" ref="AD29" si="45">(AD28/AC28)-1</f>
         <v>-0.92983939137785288</v>
       </c>
       <c r="AE29" s="15">
-        <f t="shared" ref="AE29" si="45">(AE28/AD28)-1</f>
+        <f t="shared" ref="AE29" si="46">(AE28/AD28)-1</f>
         <v>3.8554216867469879</v>
       </c>
       <c r="AF29" s="15">
-        <f t="shared" ref="AF29" si="46">(AF28/AE28)-1</f>
+        <f t="shared" ref="AF29" si="47">(AF28/AE28)-1</f>
         <v>0.63771712158808924</v>
       </c>
       <c r="AG29" s="15">
-        <f t="shared" ref="AG29" si="47">(AG28/AF28)-1</f>
+        <f t="shared" ref="AG29" si="48">(AG28/AF28)-1</f>
         <v>-0.24696969696969695</v>
       </c>
       <c r="AH29" s="15">
-        <f t="shared" ref="AH29" si="48">(AH28/AG28)-1</f>
+        <f t="shared" ref="AH29" si="49">(AH28/AG28)-1</f>
         <v>-1.0865191146881288</v>
       </c>
       <c r="AI29" s="15">
-        <f t="shared" ref="AI29" si="49">(AI28/AH28)-1</f>
+        <f t="shared" ref="AI29" si="50">(AI28/AH28)-1</f>
         <v>6.8372093023255811</v>
       </c>
       <c r="AJ29" s="15">
-        <f t="shared" ref="AJ29" si="50">(AJ28/AI28)-1</f>
+        <f t="shared" ref="AJ29" si="51">(AJ28/AI28)-1</f>
         <v>1.1869436201780381E-2</v>
       </c>
       <c r="AK29" s="15">
-        <f t="shared" ref="AK29" si="51">(AK28/AJ28)-1</f>
+        <f t="shared" ref="AK29" si="52">(AK28/AJ28)-1</f>
         <v>6.3020527859237534</v>
       </c>
       <c r="AL29" s="15">
-        <f t="shared" ref="AL29" si="52">(AL28/AK28)-1</f>
+        <f t="shared" ref="AL29" si="53">(AL28/AK28)-1</f>
         <v>0.26987951807228905</v>
       </c>
       <c r="AM29" s="15">
-        <f t="shared" ref="AM29" si="53">(AM28/AL28)-1</f>
+        <f t="shared" ref="AM29:AR29" si="54">(AM28/AL28)-1</f>
         <v>-0.58254269449715368</v>
       </c>
+      <c r="AN29" s="16">
+        <f t="shared" si="54"/>
+        <v>2.5280303030303028</v>
+      </c>
+      <c r="AO29" s="16">
+        <f t="shared" si="54"/>
+        <v>0.40712905303843683</v>
+      </c>
+      <c r="AP29" s="16">
+        <f t="shared" si="54"/>
+        <v>0.24645200671448197</v>
+      </c>
+      <c r="AQ29" s="16">
+        <f t="shared" si="54"/>
+        <v>0.63932419196865808</v>
+      </c>
+      <c r="AR29" s="16">
+        <f t="shared" si="54"/>
+        <v>0.11867064973861097</v>
+      </c>
     </row>
-    <row r="30" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C30" s="2">
         <v>-6.3500000000000001E-2</v>
@@ -7094,13 +7296,33 @@
       <c r="AM30" s="2">
         <v>5.5899999999999998E-2</v>
       </c>
+      <c r="AN30" s="67">
+        <f>AN28/AN3</f>
+        <v>0.20523555594729187</v>
+      </c>
+      <c r="AO30" s="67">
+        <f t="shared" ref="AO30:AR30" si="55">AO28/AO3</f>
+        <v>0.24279362726935902</v>
+      </c>
+      <c r="AP30" s="67">
+        <f t="shared" si="55"/>
+        <v>0.26754012446773667</v>
+      </c>
+      <c r="AQ30" s="67">
+        <f t="shared" si="55"/>
+        <v>0.34902512772390781</v>
+      </c>
+      <c r="AR30" s="67">
+        <f t="shared" si="55"/>
+        <v>0.35243047386005366</v>
+      </c>
     </row>
-    <row r="31" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C31" s="12">
         <v>-0.33</v>
@@ -7213,13 +7435,28 @@
       <c r="AM31" s="12">
         <v>0.85</v>
       </c>
+      <c r="AN31" s="68">
+        <v>2.89</v>
+      </c>
+      <c r="AO31" s="68">
+        <v>4.07</v>
+      </c>
+      <c r="AP31" s="68">
+        <v>5.07</v>
+      </c>
+      <c r="AQ31" s="68">
+        <v>8.31</v>
+      </c>
+      <c r="AR31" s="68">
+        <v>9.3000000000000007</v>
+      </c>
     </row>
-    <row r="32" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C32" s="12">
         <v>-0.33</v>
@@ -7338,7 +7575,7 @@
         <v>26</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C33" s="1">
         <v>110909091</v>
@@ -7457,7 +7694,7 @@
         <v>27</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C34" s="1">
         <v>110909091</v>
@@ -7573,7 +7810,7 @@
     </row>
     <row r="35" spans="1:39" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="22" t="e">
@@ -7581,147 +7818,147 @@
         <v>#VALUE!</v>
       </c>
       <c r="D35" s="22">
-        <f t="shared" ref="D35:U35" si="54">(D34-C34)/C34</f>
+        <f t="shared" ref="D35:U35" si="56">(D34-C34)/C34</f>
         <v>0.40004553819668398</v>
       </c>
       <c r="E35" s="22">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>-4.472272265513743E-2</v>
       </c>
       <c r="F35" s="22">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>9.3973442907805488E-2</v>
       </c>
       <c r="G35" s="22">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>1.1276306461528806E-2</v>
       </c>
       <c r="H35" s="22">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>8.1640625676025397E-2</v>
       </c>
       <c r="I35" s="22">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>5.735211267605634E-2</v>
       </c>
       <c r="J35" s="22">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>8.7627877237851662E-2</v>
       </c>
       <c r="K35" s="22">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>2.4563259947287461E-2</v>
       </c>
       <c r="L35" s="22">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>2.3572726403366166E-2</v>
       </c>
       <c r="M35" s="22">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>0.26768813939365627</v>
       </c>
       <c r="N35" s="22">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>3.51249567018211E-2</v>
       </c>
       <c r="O35" s="22">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>2.2890219504033377E-2</v>
       </c>
       <c r="P35" s="22">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>2.3665673636439569E-2</v>
       </c>
       <c r="Q35" s="22">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>0.18992574863328529</v>
       </c>
       <c r="R35" s="22">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>-5.0265714285714289E-2</v>
       </c>
       <c r="S35" s="22">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>2.9863992033862103E-2</v>
       </c>
       <c r="T35" s="22">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>1.3437169547868456E-2</v>
       </c>
       <c r="U35" s="22">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>6.9557898620486891E-2</v>
       </c>
       <c r="V35" s="22">
-        <f t="shared" ref="V35" si="55">(V34-U34)/U34</f>
+        <f t="shared" ref="V35" si="57">(V34-U34)/U34</f>
         <v>0.18786415354680838</v>
       </c>
       <c r="W35" s="22">
-        <f t="shared" ref="W35" si="56">(W34-V34)/V34</f>
+        <f t="shared" ref="W35" si="58">(W34-V34)/V34</f>
         <v>0.11621322395048732</v>
       </c>
       <c r="X35" s="22">
-        <f t="shared" ref="X35" si="57">(X34-W34)/W34</f>
+        <f t="shared" ref="X35" si="59">(X34-W34)/W34</f>
         <v>0.13414634146341464</v>
       </c>
       <c r="Y35" s="22">
-        <f t="shared" ref="Y35" si="58">(Y34-X34)/X34</f>
+        <f t="shared" ref="Y35" si="60">(Y34-X34)/X34</f>
         <v>8.7813620071684584E-2</v>
       </c>
       <c r="Z35" s="22">
-        <f t="shared" ref="Z35" si="59">(Z34-Y34)/Y34</f>
+        <f t="shared" ref="Z35" si="61">(Z34-Y34)/Y34</f>
         <v>0.11696869851729819</v>
       </c>
       <c r="AA35" s="22">
-        <f t="shared" ref="AA35" si="60">(AA34-Z34)/Z34</f>
+        <f t="shared" ref="AA35" si="62">(AA34-Z34)/Z34</f>
         <v>8.1120943952802366E-2</v>
       </c>
       <c r="AB35" s="22">
-        <f t="shared" ref="AB35" si="61">(AB34-AA34)/AA34</f>
+        <f t="shared" ref="AB35" si="63">(AB34-AA34)/AA34</f>
         <v>1.227830832196453E-2</v>
       </c>
       <c r="AC35" s="22">
-        <f t="shared" ref="AC35" si="62">(AC34-AB34)/AB34</f>
+        <f t="shared" ref="AC35" si="64">(AC34-AB34)/AB34</f>
         <v>-1.3477088948787063E-3</v>
       </c>
       <c r="AD35" s="22">
-        <f t="shared" ref="AD35" si="63">(AD34-AC34)/AC34</f>
+        <f t="shared" ref="AD35" si="65">(AD34-AC34)/AC34</f>
         <v>1.7543859649122806E-2</v>
       </c>
       <c r="AE35" s="22">
-        <f t="shared" ref="AE35" si="64">(AE34-AD34)/AD34</f>
+        <f t="shared" ref="AE35" si="66">(AE34-AD34)/AD34</f>
         <v>1.8567639257294429E-2</v>
       </c>
       <c r="AF35" s="22">
-        <f t="shared" ref="AF35" si="65">(AF34-AE34)/AE34</f>
+        <f t="shared" ref="AF35" si="67">(AF34-AE34)/AE34</f>
         <v>1.953125E-2</v>
       </c>
       <c r="AG35" s="22">
-        <f t="shared" ref="AG35" si="66">(AG34-AF34)/AF34</f>
+        <f t="shared" ref="AG35" si="68">(AG34-AF34)/AF34</f>
         <v>6.6411238825031929E-2</v>
       </c>
       <c r="AH35" s="22">
-        <f t="shared" ref="AH35" si="67">(AH34-AG34)/AG34</f>
+        <f t="shared" ref="AH35" si="69">(AH34-AG34)/AG34</f>
         <v>0.24431137724550897</v>
       </c>
       <c r="AI35" s="22">
-        <f t="shared" ref="AI35" si="68">(AI34-AH34)/AH34</f>
+        <f t="shared" ref="AI35" si="70">(AI34-AH34)/AH34</f>
         <v>2.406159769008662E-2</v>
       </c>
       <c r="AJ35" s="22">
-        <f t="shared" ref="AJ35" si="69">(AJ34-AI34)/AI34</f>
+        <f t="shared" ref="AJ35" si="71">(AJ34-AI34)/AI34</f>
         <v>5.2631578947368418E-2</v>
       </c>
       <c r="AK35" s="22">
-        <f t="shared" ref="AK35" si="70">(AK34-AJ34)/AJ34</f>
+        <f t="shared" ref="AK35" si="72">(AK34-AJ34)/AJ34</f>
         <v>7.767857142857143E-2</v>
       </c>
       <c r="AL35" s="22">
-        <f t="shared" ref="AL35" si="71">(AL34-AK34)/AK34</f>
+        <f t="shared" ref="AL35" si="73">(AL34-AK34)/AK34</f>
         <v>1.8227009113504555E-2</v>
       </c>
       <c r="AM35" s="22">
-        <f t="shared" ref="AM35" si="72">(AM34-AL34)/AL34</f>
+        <f t="shared" ref="AM35" si="74">(AM34-AL34)/AL34</f>
         <v>0.27827502034174123</v>
       </c>
     </row>
@@ -7730,118 +7967,118 @@
         <v>28</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="U36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="W36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="X36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Y36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Z36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AA36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AB36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AC36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AD36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AE36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AF36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AG36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AH36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AI36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AK36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AL36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AM36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:39" ht="21" x14ac:dyDescent="0.25">
@@ -7849,118 +8086,118 @@
         <v>29</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AA37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AB37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AC37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AD37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AE37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AF37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AG37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AI37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AJ37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AK37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AL37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AM37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -7968,10 +8205,10 @@
         <v>30</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D38" s="1">
         <v>15400000</v>
@@ -8087,34 +8324,34 @@
         <v>31</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L39" s="1">
         <v>377293000</v>
@@ -8177,13 +8414,13 @@
         <v>235000000</v>
       </c>
       <c r="AF39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI39" s="1">
         <v>78000000</v>
@@ -8206,10 +8443,10 @@
         <v>32</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D40" s="1">
         <v>15400000</v>
@@ -8325,10 +8562,10 @@
         <v>33</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D41" s="1">
         <v>109000000</v>
@@ -8444,10 +8681,10 @@
         <v>34</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D42" s="1">
         <v>42500000</v>
@@ -8563,10 +8800,10 @@
         <v>35</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D43" s="1">
         <v>76200000</v>
@@ -8682,10 +8919,10 @@
         <v>36</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D44" s="10">
         <v>243100000</v>
@@ -8801,10 +9038,10 @@
         <v>37</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D45" s="1">
         <v>486500000</v>
@@ -8920,67 +9157,67 @@
         <v>38</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W46" s="1">
         <v>3217000000</v>
@@ -9039,67 +9276,67 @@
         <v>39</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W47" s="1">
         <v>1207000000</v>
@@ -9117,7 +9354,7 @@
         <v>37000000</v>
       </c>
       <c r="AB47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC47" s="1">
         <v>96000000</v>
@@ -9158,67 +9395,67 @@
         <v>40</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W48" s="1">
         <v>4424000000</v>
@@ -9277,37 +9514,37 @@
         <v>41</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K49" s="1">
         <v>125000000</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M49" s="1">
         <v>197000000</v>
@@ -9322,37 +9559,37 @@
         <v>274000000</v>
       </c>
       <c r="Q49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R49" s="1">
         <v>364000000</v>
       </c>
       <c r="S49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB49" s="1">
         <v>427000000</v>
@@ -9364,10 +9601,10 @@
         <v>90000000</v>
       </c>
       <c r="AE49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG49" s="1">
         <v>59000000</v>
@@ -9396,37 +9633,37 @@
         <v>42</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K50" s="1">
         <v>43000000</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M50" s="1">
         <v>95000000</v>
@@ -9441,64 +9678,64 @@
         <v>60000000</v>
       </c>
       <c r="Q50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R50" s="1">
         <v>105000000</v>
       </c>
       <c r="S50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK50" s="1">
         <v>1245000000</v>
@@ -9515,10 +9752,10 @@
         <v>43</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D51" s="1">
         <v>1900000</v>
@@ -9634,10 +9871,10 @@
         <v>44</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D52" s="1">
         <v>488400000</v>
@@ -9753,118 +9990,118 @@
         <v>45</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -9872,10 +10109,10 @@
         <v>46</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D54" s="11">
         <v>731500000</v>
@@ -9991,16 +10228,16 @@
         <v>47</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F55" s="1">
         <v>67700000</v>
@@ -10110,10 +10347,10 @@
         <v>48</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D56" s="1">
         <v>10800000</v>
@@ -10152,7 +10389,7 @@
         <v>6000000</v>
       </c>
       <c r="P56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q56" s="1">
         <v>129570000</v>
@@ -10203,7 +10440,7 @@
         <v>230000000</v>
       </c>
       <c r="AG56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH56" s="1">
         <v>70000000</v>
@@ -10215,7 +10452,7 @@
         <v>43000000</v>
       </c>
       <c r="AK56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL56" s="1">
         <v>312000000</v>
@@ -10229,118 +10466,118 @@
         <v>49</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -10348,55 +10585,55 @@
         <v>50</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L58" s="1">
         <v>100057000</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q58" s="1">
         <v>92828000</v>
       </c>
       <c r="R58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S58" s="1">
         <v>57184000</v>
@@ -10447,19 +10684,19 @@
         <v>22000000</v>
       </c>
       <c r="AI58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ58" s="1">
         <v>2000000</v>
       </c>
       <c r="AK58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="59" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -10467,10 +10704,10 @@
         <v>51</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D59" s="1">
         <v>131600000</v>
@@ -10586,10 +10823,10 @@
         <v>52</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D60" s="10">
         <v>142400000</v>
@@ -10705,10 +10942,10 @@
         <v>53</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D61" s="1">
         <v>151600000</v>
@@ -10824,118 +11061,118 @@
         <v>50</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="63" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -10943,10 +11180,10 @@
         <v>54</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D63" s="1">
         <v>48200000</v>
@@ -10970,31 +11207,31 @@
         <v>42837000</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L63" s="1">
         <v>94439000</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q63" s="1">
         <v>203986000</v>
       </c>
       <c r="R63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T63" s="1">
         <v>157690000</v>
@@ -11018,40 +11255,40 @@
         <v>197000000</v>
       </c>
       <c r="AA63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM63" s="1">
         <v>1934000000</v>
@@ -11062,19 +11299,19 @@
         <v>55</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D64" s="1">
         <v>100000</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G64" s="1">
         <v>100000</v>
@@ -11086,13 +11323,13 @@
         <v>100000</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K64" s="1">
         <v>42000000</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M64" s="1">
         <v>95000000</v>
@@ -11107,13 +11344,13 @@
         <v>60000000</v>
       </c>
       <c r="Q64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R64" s="1">
         <v>105000000</v>
       </c>
       <c r="S64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T64" s="1">
         <v>428761000</v>
@@ -11181,10 +11418,10 @@
         <v>56</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D65" s="1">
         <v>199900000</v>
@@ -11300,118 +11537,118 @@
         <v>57</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -11419,10 +11656,10 @@
         <v>58</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D67" s="10">
         <v>342300000</v>
@@ -11538,28 +11775,28 @@
         <v>59</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J68" s="1">
         <v>926000</v>
@@ -11657,10 +11894,10 @@
         <v>60</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D69" s="1">
         <v>269200000</v>
@@ -11776,10 +12013,10 @@
         <v>61</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D70" s="1">
         <v>-297100000</v>
@@ -11878,7 +12115,7 @@
         <v>-8000000</v>
       </c>
       <c r="AJ70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK70" s="1">
         <v>17000000</v>
@@ -11895,10 +12132,10 @@
         <v>62</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D71" s="1">
         <v>417100000</v>
@@ -12014,10 +12251,10 @@
         <v>63</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D72" s="10">
         <v>389200000</v>
@@ -12133,10 +12370,10 @@
         <v>64</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D73" s="11">
         <v>731500000</v>
@@ -12252,118 +12489,118 @@
         <v>28</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="U74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="W74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="X74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Y74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Z74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AA74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AB74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AC74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AD74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AE74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AF74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AG74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AH74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AI74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AK74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AL74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AM74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75" spans="1:39" ht="21" x14ac:dyDescent="0.25">
@@ -12371,118 +12608,118 @@
         <v>65</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AA75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AB75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AC75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AD75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AE75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AF75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AG75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AI75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AJ75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AK75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AL75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AM75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -12490,16 +12727,16 @@
         <v>66</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F76" s="1">
         <v>46100000</v>
@@ -12568,7 +12805,7 @@
         <v>471000000</v>
       </c>
       <c r="AB76" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC76" s="1">
         <v>-1183000000</v>
@@ -12609,16 +12846,16 @@
         <v>13</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F77" s="1">
         <v>136400000</v>
@@ -12728,16 +12965,16 @@
         <v>67</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F78" s="1">
         <v>-10600000</v>
@@ -12755,7 +12992,7 @@
         <v>-27021000</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L78" s="1">
         <v>41607000</v>
@@ -12815,16 +13052,16 @@
         <v>1000000</v>
       </c>
       <c r="AE78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG78" s="1">
         <v>11000000</v>
       </c>
       <c r="AH78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI78" s="1">
         <v>-4000000</v>
@@ -12847,76 +13084,76 @@
         <v>68</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z79" s="1">
         <v>75000000</v>
@@ -12963,158 +13200,158 @@
     </row>
     <row r="80" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B80" s="15" t="e">
-        <f t="shared" ref="B80:AM80" si="73">B79/B3</f>
+        <f t="shared" ref="B80:AM80" si="75">B79/B3</f>
         <v>#VALUE!</v>
       </c>
       <c r="C80" s="15" t="e">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>#VALUE!</v>
       </c>
       <c r="D80" s="15" t="e">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>#VALUE!</v>
       </c>
       <c r="E80" s="15" t="e">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>#VALUE!</v>
       </c>
       <c r="F80" s="15" t="e">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>#VALUE!</v>
       </c>
       <c r="G80" s="15" t="e">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>#VALUE!</v>
       </c>
       <c r="H80" s="15" t="e">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>#VALUE!</v>
       </c>
       <c r="I80" s="15" t="e">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>#VALUE!</v>
       </c>
       <c r="J80" s="15" t="e">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>#VALUE!</v>
       </c>
       <c r="K80" s="15" t="e">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>#VALUE!</v>
       </c>
       <c r="L80" s="15" t="e">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>#VALUE!</v>
       </c>
       <c r="M80" s="15" t="e">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>#VALUE!</v>
       </c>
       <c r="N80" s="15" t="e">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>#VALUE!</v>
       </c>
       <c r="O80" s="15" t="e">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>#VALUE!</v>
       </c>
       <c r="P80" s="15" t="e">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>#VALUE!</v>
       </c>
       <c r="Q80" s="15" t="e">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>#VALUE!</v>
       </c>
       <c r="R80" s="15" t="e">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>#VALUE!</v>
       </c>
       <c r="S80" s="15" t="e">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>#VALUE!</v>
       </c>
       <c r="T80" s="15" t="e">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>#VALUE!</v>
       </c>
       <c r="U80" s="15" t="e">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>#VALUE!</v>
       </c>
       <c r="V80" s="15" t="e">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>#VALUE!</v>
       </c>
       <c r="W80" s="15" t="e">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>#VALUE!</v>
       </c>
       <c r="X80" s="15" t="e">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>#VALUE!</v>
       </c>
       <c r="Y80" s="15" t="e">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>#VALUE!</v>
       </c>
       <c r="Z80" s="15">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>1.38811771238201E-2</v>
       </c>
       <c r="AA80" s="15">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>1.3396981829380967E-2</v>
       </c>
       <c r="AB80" s="15">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>1.3702801461632157E-2</v>
       </c>
       <c r="AC80" s="15">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>1.7890077462191074E-2</v>
       </c>
       <c r="AD80" s="15">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>1.7173051519154558E-2</v>
       </c>
       <c r="AE80" s="15">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>1.4711224119142753E-2</v>
       </c>
       <c r="AF80" s="15">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>1.578551741418191E-2</v>
       </c>
       <c r="AG80" s="15">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>2.0131086142322098E-2</v>
       </c>
       <c r="AH80" s="15">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>1.8202289360105085E-2</v>
       </c>
       <c r="AI80" s="15">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>2.1158301158301158E-2</v>
       </c>
       <c r="AJ80" s="15">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>2.9267567969098202E-2</v>
       </c>
       <c r="AK80" s="15">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>2.8065143910683193E-2</v>
       </c>
       <c r="AL80" s="15">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>2.3061944748691738E-2</v>
       </c>
       <c r="AM80" s="15">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>4.5803143934579044E-2</v>
       </c>
     </row>
@@ -13123,16 +13360,16 @@
         <v>69</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F81" s="1">
         <v>-19600000</v>
@@ -13242,76 +13479,76 @@
         <v>70</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z82" s="1">
         <v>-960000000</v>
@@ -13361,49 +13598,49 @@
         <v>34</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q83" s="1">
         <v>-156284000</v>
@@ -13474,89 +13711,89 @@
       <c r="AM83" s="1">
         <v>-1401000000</v>
       </c>
-      <c r="AT83" s="61" t="s">
-        <v>126</v>
-      </c>
-      <c r="AU83" s="62"/>
+      <c r="AT83" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="AU83" s="33"/>
     </row>
     <row r="84" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA84" s="1">
         <v>55000000</v>
@@ -13597,77 +13834,77 @@
       <c r="AM84" s="1">
         <v>931000000</v>
       </c>
-      <c r="AT84" s="63" t="s">
-        <v>127</v>
-      </c>
-      <c r="AU84" s="64"/>
+      <c r="AT84" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="AU84" s="34"/>
     </row>
     <row r="85" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>71</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R85" s="1">
         <v>-52288000</v>
       </c>
       <c r="S85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W85" s="1">
         <v>-175000000</v>
@@ -13694,36 +13931,36 @@
         <v>-92000000</v>
       </c>
       <c r="AE85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM85" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AT85" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="AU85" s="24">
+        <v>91</v>
+      </c>
+      <c r="AT85" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="AU85" s="36">
         <f>AM17</f>
         <v>88000000</v>
       </c>
@@ -13733,16 +13970,16 @@
         <v>72</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F86" s="1">
         <v>3300000</v>
@@ -13844,12 +14081,12 @@
         <v>-17000000</v>
       </c>
       <c r="AM86" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AT86" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="AU86" s="24">
+        <v>91</v>
+      </c>
+      <c r="AT86" s="35" t="s">
+        <v>127</v>
+      </c>
+      <c r="AU86" s="36">
         <f>AM56</f>
         <v>0</v>
       </c>
@@ -13859,16 +14096,16 @@
         <v>73</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E87" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F87" s="10">
         <v>155600000</v>
@@ -13972,10 +14209,10 @@
       <c r="AM87" s="10">
         <v>3565000000</v>
       </c>
-      <c r="AT87" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="AU87" s="24">
+      <c r="AT87" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="AU87" s="36">
         <f>AM61</f>
         <v>2863000000</v>
       </c>
@@ -13985,16 +14222,16 @@
         <v>74</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F88" s="1">
         <v>-158800000</v>
@@ -14098,176 +14335,176 @@
       <c r="AM88" s="1">
         <v>-450000000</v>
       </c>
-      <c r="AT88" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="AU88" s="34">
+      <c r="AT88" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="AU88" s="38">
         <f>AU85/(AU86+AU87)</f>
         <v>3.0736989172196996E-2</v>
       </c>
     </row>
     <row r="89" spans="1:47" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B89" s="15" t="e">
+        <f t="shared" ref="B89:AM89" si="76">(-1*B88)/B3</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C89" s="15" t="e">
+        <f t="shared" si="76"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D89" s="15" t="e">
+        <f t="shared" si="76"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E89" s="15" t="e">
+        <f t="shared" si="76"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F89" s="15">
+        <f t="shared" si="76"/>
+        <v>0.14376244794495746</v>
+      </c>
+      <c r="G89" s="15">
+        <f t="shared" si="76"/>
+        <v>0.28719788519637462</v>
+      </c>
+      <c r="H89" s="15">
+        <f t="shared" si="76"/>
+        <v>9.0494048589597267E-2</v>
+      </c>
+      <c r="I89" s="15">
+        <f t="shared" si="76"/>
+        <v>0.14664905909541104</v>
+      </c>
+      <c r="J89" s="15">
+        <f t="shared" si="76"/>
+        <v>0.19636772878394448</v>
+      </c>
+      <c r="K89" s="15">
+        <f t="shared" si="76"/>
+        <v>0.25705813463250105</v>
+      </c>
+      <c r="L89" s="15">
+        <f t="shared" si="76"/>
+        <v>0.25550844458053673</v>
+      </c>
+      <c r="M89" s="15">
+        <f t="shared" si="76"/>
+        <v>0.24834269405469173</v>
+      </c>
+      <c r="N89" s="15">
+        <f t="shared" si="76"/>
+        <v>0.29074319664739273</v>
+      </c>
+      <c r="O89" s="15">
+        <f t="shared" si="76"/>
+        <v>0.39186260714885601</v>
+      </c>
+      <c r="P89" s="15">
+        <f t="shared" si="76"/>
+        <v>0.21688519472957066</v>
+      </c>
+      <c r="Q89" s="15">
+        <f t="shared" si="76"/>
+        <v>0.17343702999039445</v>
+      </c>
+      <c r="R89" s="15">
+        <f t="shared" si="76"/>
+        <v>0.17443677066947191</v>
+      </c>
+      <c r="S89" s="15">
+        <f t="shared" si="76"/>
+        <v>0.26145325096615574</v>
+      </c>
+      <c r="T89" s="15">
+        <f t="shared" si="76"/>
+        <v>0.16205989597541237</v>
+      </c>
+      <c r="U89" s="15">
+        <f t="shared" si="76"/>
+        <v>0.28794475985392193</v>
+      </c>
+      <c r="V89" s="15">
+        <f t="shared" si="76"/>
+        <v>0.25876923040089939</v>
+      </c>
+      <c r="W89" s="15">
+        <f t="shared" si="76"/>
+        <v>0.32873074880509823</v>
+      </c>
+      <c r="X89" s="15">
+        <f t="shared" si="76"/>
+        <v>0.28022617661732913</v>
+      </c>
+      <c r="Y89" s="15">
+        <f t="shared" si="76"/>
+        <v>0.10743801652892562</v>
+      </c>
+      <c r="Z89" s="15">
+        <f t="shared" si="76"/>
+        <v>8.6248380529335561E-2</v>
+      </c>
+      <c r="AA89" s="15">
+        <f t="shared" si="76"/>
+        <v>2.2790267939636587E-2</v>
+      </c>
+      <c r="AB89" s="15">
+        <f t="shared" si="76"/>
+        <v>3.8063337393422658E-2</v>
+      </c>
+      <c r="AC89" s="15">
+        <f t="shared" si="76"/>
+        <v>2.4529693839911472E-2</v>
+      </c>
+      <c r="AD89" s="15">
+        <f t="shared" si="76"/>
+        <v>1.5852047556142668E-2</v>
+      </c>
+      <c r="AE89" s="15">
+        <f t="shared" si="76"/>
+        <v>1.7253904831093354E-2</v>
+      </c>
+      <c r="AF89" s="15">
+        <f t="shared" si="76"/>
+        <v>2.405412177399148E-2</v>
+      </c>
+      <c r="AG89" s="15">
+        <f t="shared" si="76"/>
+        <v>1.8024344569288388E-2</v>
+      </c>
+      <c r="AH89" s="15">
+        <f t="shared" si="76"/>
+        <v>2.1204728842184276E-2</v>
+      </c>
+      <c r="AI89" s="15">
+        <f t="shared" si="76"/>
+        <v>2.5173745173745175E-2</v>
+      </c>
+      <c r="AJ89" s="15">
+        <f t="shared" si="76"/>
+        <v>3.2238894666468579E-2</v>
+      </c>
+      <c r="AK89" s="15">
+        <f t="shared" si="76"/>
+        <v>3.0113694561098022E-2</v>
+      </c>
+      <c r="AL89" s="15">
+        <f t="shared" si="76"/>
+        <v>1.8315686990385785E-2</v>
+      </c>
+      <c r="AM89" s="15">
+        <f t="shared" si="76"/>
+        <v>1.9066988686920045E-2</v>
+      </c>
+      <c r="AT89" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="B89" s="15" t="e">
-        <f t="shared" ref="B89:AM89" si="74">(-1*B88)/B3</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C89" s="15" t="e">
-        <f t="shared" si="74"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D89" s="15" t="e">
-        <f t="shared" si="74"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E89" s="15" t="e">
-        <f t="shared" si="74"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F89" s="15">
-        <f t="shared" si="74"/>
-        <v>0.14376244794495746</v>
-      </c>
-      <c r="G89" s="15">
-        <f t="shared" si="74"/>
-        <v>0.28719788519637462</v>
-      </c>
-      <c r="H89" s="15">
-        <f t="shared" si="74"/>
-        <v>9.0494048589597267E-2</v>
-      </c>
-      <c r="I89" s="15">
-        <f t="shared" si="74"/>
-        <v>0.14664905909541104</v>
-      </c>
-      <c r="J89" s="15">
-        <f t="shared" si="74"/>
-        <v>0.19636772878394448</v>
-      </c>
-      <c r="K89" s="15">
-        <f t="shared" si="74"/>
-        <v>0.25705813463250105</v>
-      </c>
-      <c r="L89" s="15">
-        <f t="shared" si="74"/>
-        <v>0.25550844458053673</v>
-      </c>
-      <c r="M89" s="15">
-        <f t="shared" si="74"/>
-        <v>0.24834269405469173</v>
-      </c>
-      <c r="N89" s="15">
-        <f t="shared" si="74"/>
-        <v>0.29074319664739273</v>
-      </c>
-      <c r="O89" s="15">
-        <f t="shared" si="74"/>
-        <v>0.39186260714885601</v>
-      </c>
-      <c r="P89" s="15">
-        <f t="shared" si="74"/>
-        <v>0.21688519472957066</v>
-      </c>
-      <c r="Q89" s="15">
-        <f t="shared" si="74"/>
-        <v>0.17343702999039445</v>
-      </c>
-      <c r="R89" s="15">
-        <f t="shared" si="74"/>
-        <v>0.17443677066947191</v>
-      </c>
-      <c r="S89" s="15">
-        <f t="shared" si="74"/>
-        <v>0.26145325096615574</v>
-      </c>
-      <c r="T89" s="15">
-        <f t="shared" si="74"/>
-        <v>0.16205989597541237</v>
-      </c>
-      <c r="U89" s="15">
-        <f t="shared" si="74"/>
-        <v>0.28794475985392193</v>
-      </c>
-      <c r="V89" s="15">
-        <f t="shared" si="74"/>
-        <v>0.25876923040089939</v>
-      </c>
-      <c r="W89" s="15">
-        <f t="shared" si="74"/>
-        <v>0.32873074880509823</v>
-      </c>
-      <c r="X89" s="15">
-        <f t="shared" si="74"/>
-        <v>0.28022617661732913</v>
-      </c>
-      <c r="Y89" s="15">
-        <f t="shared" si="74"/>
-        <v>0.10743801652892562</v>
-      </c>
-      <c r="Z89" s="15">
-        <f t="shared" si="74"/>
-        <v>8.6248380529335561E-2</v>
-      </c>
-      <c r="AA89" s="15">
-        <f t="shared" si="74"/>
-        <v>2.2790267939636587E-2</v>
-      </c>
-      <c r="AB89" s="15">
-        <f t="shared" si="74"/>
-        <v>3.8063337393422658E-2</v>
-      </c>
-      <c r="AC89" s="15">
-        <f t="shared" si="74"/>
-        <v>2.4529693839911472E-2</v>
-      </c>
-      <c r="AD89" s="15">
-        <f t="shared" si="74"/>
-        <v>1.5852047556142668E-2</v>
-      </c>
-      <c r="AE89" s="15">
-        <f t="shared" si="74"/>
-        <v>1.7253904831093354E-2</v>
-      </c>
-      <c r="AF89" s="15">
-        <f t="shared" si="74"/>
-        <v>2.405412177399148E-2</v>
-      </c>
-      <c r="AG89" s="15">
-        <f t="shared" si="74"/>
-        <v>1.8024344569288388E-2</v>
-      </c>
-      <c r="AH89" s="15">
-        <f t="shared" si="74"/>
-        <v>2.1204728842184276E-2</v>
-      </c>
-      <c r="AI89" s="15">
-        <f t="shared" si="74"/>
-        <v>2.5173745173745175E-2</v>
-      </c>
-      <c r="AJ89" s="15">
-        <f t="shared" si="74"/>
-        <v>3.2238894666468579E-2</v>
-      </c>
-      <c r="AK89" s="15">
-        <f t="shared" si="74"/>
-        <v>3.0113694561098022E-2</v>
-      </c>
-      <c r="AL89" s="15">
-        <f t="shared" si="74"/>
-        <v>1.8315686990385785E-2</v>
-      </c>
-      <c r="AM89" s="15">
-        <f t="shared" si="74"/>
-        <v>1.9066988686920045E-2</v>
-      </c>
-      <c r="AT89" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="AU89" s="24">
+      <c r="AU89" s="36">
         <f>AM27</f>
-        <v>-122000000</v>
+        <v>122000000</v>
       </c>
     </row>
     <row r="90" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -14275,55 +14512,55 @@
         <v>75</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S90" s="1">
         <v>-26509000</v>
@@ -14332,10 +14569,10 @@
         <v>-6265000</v>
       </c>
       <c r="U90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W90" s="1">
         <v>-3893000000</v>
@@ -14347,25 +14584,25 @@
         <v>127000000</v>
       </c>
       <c r="Z90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA90" s="1">
         <v>-904000000</v>
       </c>
       <c r="AB90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC90" s="1">
         <v>-281000000</v>
       </c>
       <c r="AD90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG90" s="1">
         <v>342000000</v>
@@ -14374,24 +14611,24 @@
         <v>1000000</v>
       </c>
       <c r="AI90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM90" s="1">
         <v>-1377000000</v>
       </c>
-      <c r="AT90" s="23" t="s">
+      <c r="AT90" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="AU90" s="24">
+      <c r="AU90" s="36">
         <f>AM25</f>
         <v>1184000000</v>
       </c>
@@ -14401,16 +14638,16 @@
         <v>76</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F91" s="1">
         <v>-401300000</v>
@@ -14494,7 +14731,7 @@
         <v>-227000000</v>
       </c>
       <c r="AG91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH91" s="1">
         <v>-222000000</v>
@@ -14514,12 +14751,12 @@
       <c r="AM91" s="1">
         <v>-2667000000</v>
       </c>
-      <c r="AT91" s="33" t="s">
-        <v>132</v>
-      </c>
-      <c r="AU91" s="34">
+      <c r="AT91" s="37" t="s">
+        <v>130</v>
+      </c>
+      <c r="AU91" s="38">
         <f>AU89/AU90</f>
-        <v>-0.10304054054054054</v>
+        <v>0.10304054054054054</v>
       </c>
     </row>
     <row r="92" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -14527,16 +14764,16 @@
         <v>77</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F92" s="1">
         <v>320400000</v>
@@ -14620,7 +14857,7 @@
         <v>462000000</v>
       </c>
       <c r="AG92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH92" s="1">
         <v>222000000</v>
@@ -14640,12 +14877,12 @@
       <c r="AM92" s="1">
         <v>4310000000</v>
       </c>
-      <c r="AT92" s="35" t="s">
-        <v>133</v>
-      </c>
-      <c r="AU92" s="36">
+      <c r="AT92" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="AU92" s="38">
         <f>AU88*(1-AU91)</f>
-        <v>3.3904145151088916E-2</v>
+        <v>2.7569833193305075E-2</v>
       </c>
     </row>
     <row r="93" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -14653,16 +14890,16 @@
         <v>78</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F93" s="1">
         <v>10400000</v>
@@ -14740,7 +14977,7 @@
         <v>238000000</v>
       </c>
       <c r="AE93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF93" s="1">
         <v>8000000</v>
@@ -14758,7 +14995,7 @@
         <v>27000000</v>
       </c>
       <c r="AK93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL93" s="1">
         <v>-7000000</v>
@@ -14766,26 +15003,26 @@
       <c r="AM93" s="1">
         <v>2183000000</v>
       </c>
-      <c r="AT93" s="63" t="s">
-        <v>134</v>
-      </c>
-      <c r="AU93" s="64"/>
+      <c r="AT93" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="AU93" s="34"/>
     </row>
     <row r="94" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>79</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E94" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F94" s="10">
         <v>-229300000</v>
@@ -14889,11 +15126,12 @@
       <c r="AM94" s="10">
         <v>1999000000</v>
       </c>
-      <c r="AT94" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="AU94" s="37">
-        <v>4.095E-2</v>
+      <c r="AT94" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="AU94" s="58">
+        <f>[1]Treasuries!$C$8</f>
+        <v>4.0410000000000001E-2</v>
       </c>
     </row>
     <row r="95" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -14901,76 +15139,76 @@
         <v>80</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z95" s="1">
         <v>-1820000000</v>
@@ -15009,17 +15247,17 @@
         <v>-200000000</v>
       </c>
       <c r="AL95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM95" s="1">
         <v>-312000000</v>
       </c>
-      <c r="AT95" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="AU95" s="58" cm="1">
+      <c r="AT95" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="AU95" s="40" cm="1">
         <f t="array" ref="AU95">_FV(A1,"Beta")</f>
-        <v>1.87</v>
+        <v>1.8337000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15027,16 +15265,16 @@
         <v>81</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F96" s="1">
         <v>8500000</v>
@@ -15096,7 +15334,7 @@
         <v>686000000</v>
       </c>
       <c r="Y96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z96" s="1">
         <v>127000000</v>
@@ -15123,27 +15361,27 @@
         <v>667000000</v>
       </c>
       <c r="AH96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM96" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AT96" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="AU96" s="37">
+        <v>91</v>
+      </c>
+      <c r="AT96" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="AU96" s="39">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -15152,109 +15390,109 @@
         <v>82</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L97" s="1">
         <v>-3536000</v>
       </c>
       <c r="M97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R97" s="1">
         <v>-77220000</v>
       </c>
       <c r="S97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK97" s="1">
         <v>-78000000</v>
@@ -15265,12 +15503,12 @@
       <c r="AM97" s="1">
         <v>-3702000000</v>
       </c>
-      <c r="AT97" s="35" t="s">
-        <v>138</v>
-      </c>
-      <c r="AU97" s="36">
+      <c r="AT97" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="AU97" s="38">
         <f>(AU94)+((AU95)*(AU96-AU94))</f>
-        <v>0.12145350000000002</v>
+        <v>0.12034098300000001</v>
       </c>
     </row>
     <row r="98" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -15278,16 +15516,16 @@
         <v>83</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F98" s="1">
         <v>-10400000</v>
@@ -15311,106 +15549,106 @@
         <v>-10000</v>
       </c>
       <c r="M98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM98" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AT98" s="63" t="s">
-        <v>139</v>
-      </c>
-      <c r="AU98" s="64"/>
+        <v>91</v>
+      </c>
+      <c r="AT98" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="AU98" s="34"/>
     </row>
     <row r="99" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F99" s="1">
         <v>-13300000</v>
@@ -15514,10 +15752,10 @@
       <c r="AM99" s="1">
         <v>750000000</v>
       </c>
-      <c r="AT99" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="AU99" s="24">
+      <c r="AT99" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="AU99" s="36">
         <f>AU86+AU87</f>
         <v>2863000000</v>
       </c>
@@ -15527,16 +15765,16 @@
         <v>85</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D100" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E100" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F100" s="10">
         <v>-15200000</v>
@@ -15640,12 +15878,12 @@
       <c r="AM100" s="10">
         <v>-3264000000</v>
       </c>
-      <c r="AT100" s="33" t="s">
-        <v>141</v>
-      </c>
-      <c r="AU100" s="34">
+      <c r="AT100" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="AU100" s="38">
         <f>AU99/AU103</f>
-        <v>1.5806320542240779E-2</v>
+        <v>1.5466671564716108E-2</v>
       </c>
     </row>
     <row r="101" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15653,46 +15891,46 @@
         <v>86</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P101" s="1">
         <v>-11786000</v>
@@ -15716,62 +15954,62 @@
         <v>7228000</v>
       </c>
       <c r="W101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM101" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AT101" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="AU101" s="49" cm="1">
+        <v>91</v>
+      </c>
+      <c r="AT101" s="35" t="s">
+        <v>140</v>
+      </c>
+      <c r="AU101" s="41" cm="1">
         <f t="array" ref="AU101">_FV(A1,"Market cap",TRUE)</f>
-        <v>178267073400</v>
+        <v>182244700000</v>
       </c>
     </row>
     <row r="102" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15779,16 +16017,16 @@
         <v>87</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D102" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E102" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F102" s="10">
         <v>-15200000</v>
@@ -15892,12 +16130,12 @@
       <c r="AM102" s="10">
         <v>2300000000</v>
       </c>
-      <c r="AT102" s="33" t="s">
-        <v>143</v>
-      </c>
-      <c r="AU102" s="34">
+      <c r="AT102" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="AU102" s="38">
         <f>AU101/AU103</f>
-        <v>0.98419367945775926</v>
+        <v>0.98453332843528385</v>
       </c>
     </row>
     <row r="103" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15905,16 +16143,16 @@
         <v>88</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F103" s="1">
         <v>168600000</v>
@@ -16018,41 +16256,41 @@
       <c r="AM103" s="1">
         <v>2535000000</v>
       </c>
-      <c r="AT103" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="AU103" s="38">
+      <c r="AT103" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="AU103" s="42">
         <f>AU99+AU101</f>
-        <v>181130073400</v>
+        <v>185107700000</v>
       </c>
     </row>
-    <row r="104" spans="1:47" ht="19" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:47" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="7" t="s">
         <v>89</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J104" s="11">
         <v>60423000</v>
@@ -16144,500 +16382,628 @@
       <c r="AM104" s="11">
         <v>4835000000</v>
       </c>
-      <c r="AT104" s="63" t="s">
-        <v>145</v>
-      </c>
-      <c r="AU104" s="64"/>
+      <c r="AT104" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="AU104" s="34"/>
     </row>
-    <row r="105" spans="1:47" ht="20" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:47" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="B105" s="1"/>
-      <c r="C105" s="15" t="e">
-        <f>(C106/B106)-1</f>
+        <v>163</v>
+      </c>
+      <c r="B105" s="1" t="e">
+        <f t="shared" ref="B105:AL105" si="77">(B22*(1-$AU$91))+B77+B88+B81</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D105" s="15" t="e">
-        <f>(D106/C106)-1</f>
+      <c r="C105" s="1" t="e">
+        <f t="shared" si="77"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E105" s="15" t="e">
-        <f>(E106/D106)-1</f>
+      <c r="D105" s="1" t="e">
+        <f t="shared" si="77"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F105" s="15" t="e">
-        <f>(F106/E106)-1</f>
+      <c r="E105" s="1" t="e">
+        <f t="shared" si="77"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G105" s="15">
-        <f>(G106/F106)-1</f>
-        <v>60.3125</v>
-      </c>
-      <c r="H105" s="15">
-        <f t="shared" ref="H105:U105" si="75">(H106/G106)-1</f>
-        <v>-1.3980632008154945</v>
-      </c>
-      <c r="I105" s="15">
-        <f t="shared" si="75"/>
-        <v>1.1331626120358513</v>
-      </c>
-      <c r="J105" s="15">
-        <f t="shared" si="75"/>
-        <v>-0.20432773109243696</v>
-      </c>
-      <c r="K105" s="15">
-        <f t="shared" si="75"/>
-        <v>-0.8156971612640409</v>
-      </c>
-      <c r="L105" s="15">
-        <f t="shared" si="75"/>
-        <v>-1.3649871065449632</v>
-      </c>
-      <c r="M105" s="15">
-        <f t="shared" si="75"/>
-        <v>45.179320399237412</v>
-      </c>
-      <c r="N105" s="15">
-        <f t="shared" si="75"/>
-        <v>-0.30476394005551499</v>
-      </c>
-      <c r="O105" s="15">
-        <f t="shared" si="75"/>
-        <v>1.9752065249663797</v>
-      </c>
-      <c r="P105" s="15">
-        <f t="shared" si="75"/>
-        <v>-0.57751800102611428</v>
-      </c>
-      <c r="Q105" s="15">
-        <f t="shared" si="75"/>
-        <v>-2.1117848448806731</v>
-      </c>
-      <c r="R105" s="15">
-        <f t="shared" si="75"/>
-        <v>-2.2778008288383766</v>
-      </c>
-      <c r="S105" s="15">
-        <f t="shared" si="75"/>
-        <v>0.55325887093619186</v>
-      </c>
-      <c r="T105" s="15">
-        <f t="shared" si="75"/>
-        <v>-0.65401728087530242</v>
-      </c>
-      <c r="U105" s="15">
-        <f t="shared" si="75"/>
-        <v>0.28714010119025946</v>
-      </c>
-      <c r="V105" s="15">
-        <f t="shared" ref="V105" si="76">(V106/U106)-1</f>
-        <v>-0.91426292927921815</v>
-      </c>
-      <c r="W105" s="15">
-        <f t="shared" ref="W105" si="77">(W106/V106)-1</f>
-        <v>17.800712448050664</v>
-      </c>
-      <c r="X105" s="15">
-        <f t="shared" ref="X105" si="78">(X106/W106)-1</f>
-        <v>2.5</v>
-      </c>
-      <c r="Y105" s="15">
-        <f t="shared" ref="Y105" si="79">(Y106/X106)-1</f>
-        <v>-0.3403508771929824</v>
-      </c>
-      <c r="Z105" s="15">
-        <f t="shared" ref="Z105" si="80">(Z106/Y106)-1</f>
-        <v>-1.0053191489361701</v>
-      </c>
-      <c r="AA105" s="15">
-        <f t="shared" ref="AA105" si="81">(AA106/Z106)-1</f>
-        <v>-81</v>
-      </c>
-      <c r="AB105" s="15">
-        <f t="shared" ref="AB105" si="82">(AB106/AA106)-1</f>
-        <v>-1.2357142857142858</v>
-      </c>
-      <c r="AC105" s="15">
-        <f t="shared" ref="AC105" si="83">(AC106/AB106)-1</f>
-        <v>-4.5681818181818183</v>
-      </c>
-      <c r="AD105" s="15">
-        <f t="shared" ref="AD105" si="84">(AD106/AC106)-1</f>
-        <v>-0.50743099787685775</v>
-      </c>
-      <c r="AE105" s="15">
-        <f t="shared" ref="AE105" si="85">(AE106/AD106)-1</f>
-        <v>-0.1681034482758621</v>
-      </c>
-      <c r="AF105" s="15">
-        <f t="shared" ref="AF105" si="86">(AF106/AE106)-1</f>
-        <v>0.66839378238341962</v>
-      </c>
-      <c r="AG105" s="15">
-        <f t="shared" ref="AG105" si="87">(AG106/AF106)-1</f>
-        <v>-1.0403726708074534</v>
-      </c>
-      <c r="AH105" s="15">
-        <f t="shared" ref="AH105" si="88">(AH106/AG106)-1</f>
-        <v>-4.4615384615384617</v>
-      </c>
-      <c r="AI105" s="15">
-        <f t="shared" ref="AI105" si="89">(AI106/AH106)-1</f>
-        <v>1.8666666666666667</v>
-      </c>
-      <c r="AJ105" s="15">
-        <f t="shared" ref="AJ105" si="90">(AJ106/AI106)-1</f>
-        <v>-3.13953488372093</v>
-      </c>
-      <c r="AK105" s="15">
-        <f t="shared" ref="AK105" si="91">(AK106/AJ106)-1</f>
-        <v>1.8152173913043477</v>
-      </c>
-      <c r="AL105" s="15">
-        <f t="shared" ref="AL105" si="92">(AL106/AK106)-1</f>
-        <v>3.1441441441441444</v>
-      </c>
-      <c r="AM105" s="15">
-        <f t="shared" ref="AM105" si="93">(AM106/AL106)-1</f>
-        <v>0.10714285714285721</v>
-      </c>
-      <c r="AN105" s="15"/>
-      <c r="AO105" s="15"/>
-      <c r="AP105" s="15"/>
-      <c r="AQ105" s="15"/>
-      <c r="AR105" s="15"/>
-      <c r="AS105" s="15"/>
-      <c r="AT105" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="AU105" s="26">
+      <c r="F105" s="1">
+        <f t="shared" si="77"/>
+        <v>-7467060.8108108044</v>
+      </c>
+      <c r="G105" s="1">
+        <f t="shared" si="77"/>
+        <v>-195024324.32432431</v>
+      </c>
+      <c r="H105" s="1">
+        <f t="shared" si="77"/>
+        <v>101558277.02702701</v>
+      </c>
+      <c r="I105" s="1">
+        <f t="shared" si="77"/>
+        <v>188889358.1081081</v>
+      </c>
+      <c r="J105" s="1">
+        <f t="shared" si="77"/>
+        <v>135428173.98648649</v>
+      </c>
+      <c r="K105" s="1">
+        <f t="shared" si="77"/>
+        <v>106367880.06756759</v>
+      </c>
+      <c r="L105" s="1">
+        <f t="shared" si="77"/>
+        <v>-6267650.3378379345</v>
+      </c>
+      <c r="M105" s="1">
+        <f t="shared" si="77"/>
+        <v>-504411800.67567563</v>
+      </c>
+      <c r="N105" s="1">
+        <f t="shared" si="77"/>
+        <v>-339371065.87837839</v>
+      </c>
+      <c r="O105" s="1">
+        <f t="shared" si="77"/>
+        <v>-796285239.86486483</v>
+      </c>
+      <c r="P105" s="1">
+        <f t="shared" si="77"/>
+        <v>-269654641.8918919</v>
+      </c>
+      <c r="Q105" s="1">
+        <f t="shared" si="77"/>
+        <v>448594162.1621623</v>
+      </c>
+      <c r="R105" s="1">
+        <f t="shared" si="77"/>
+        <v>-536377064.1891892</v>
+      </c>
+      <c r="S105" s="1">
+        <f t="shared" si="77"/>
+        <v>-885258564.1891892</v>
+      </c>
+      <c r="T105" s="1">
+        <f t="shared" si="77"/>
+        <v>-89752986.486486435</v>
+      </c>
+      <c r="U105" s="1">
+        <f t="shared" si="77"/>
+        <v>-139542278.71621633</v>
+      </c>
+      <c r="V105" s="1">
+        <f t="shared" si="77"/>
+        <v>133233143.58108115</v>
+      </c>
+      <c r="W105" s="1">
+        <f t="shared" si="77"/>
+        <v>-890157094.5945946</v>
+      </c>
+      <c r="X105" s="1">
+        <f t="shared" si="77"/>
+        <v>-3089788851.3513513</v>
+      </c>
+      <c r="Y105" s="1">
+        <f t="shared" si="77"/>
+        <v>-1495555743.2432432</v>
+      </c>
+      <c r="Z105" s="1">
+        <f t="shared" si="77"/>
+        <v>218581081.08108091</v>
+      </c>
+      <c r="AA105" s="1">
+        <f t="shared" si="77"/>
+        <v>-499378378.37837839</v>
+      </c>
+      <c r="AB105" s="1">
+        <f t="shared" si="77"/>
+        <v>145081081.08108115</v>
+      </c>
+      <c r="AC105" s="1">
+        <f t="shared" si="77"/>
+        <v>-600189189.1891892</v>
+      </c>
+      <c r="AD105" s="1">
+        <f t="shared" si="77"/>
+        <v>-203613175.67567569</v>
+      </c>
+      <c r="AE105" s="1">
+        <f t="shared" si="77"/>
+        <v>-322028716.21621621</v>
+      </c>
+      <c r="AF105" s="1">
+        <f t="shared" si="77"/>
+        <v>-247437500</v>
+      </c>
+      <c r="AG105" s="1">
+        <f t="shared" si="77"/>
+        <v>-97668918.918918908</v>
+      </c>
+      <c r="AH105" s="1">
+        <f t="shared" si="77"/>
+        <v>-50020270.270270288</v>
+      </c>
+      <c r="AI105" s="1">
+        <f t="shared" si="77"/>
+        <v>-315471283.78378379</v>
+      </c>
+      <c r="AJ105" s="1">
+        <f t="shared" si="77"/>
+        <v>64981418.918918848</v>
+      </c>
+      <c r="AK105" s="1">
+        <f t="shared" si="77"/>
+        <v>356937500</v>
+      </c>
+      <c r="AL105" s="1">
+        <f t="shared" si="77"/>
+        <v>2660108108.108108</v>
+      </c>
+      <c r="AM105" s="1">
+        <f>(AM22*(1-$AU$91))+AM77+AM88+AM81</f>
+        <v>3352756756.7567568</v>
+      </c>
+      <c r="AN105" s="31">
+        <f>AM105*(1+$AU$106)</f>
+        <v>3786282943.1010356</v>
+      </c>
+      <c r="AO105" s="31">
+        <f t="shared" ref="AO105:AR105" si="78">AN105*(1+$AU$106)</f>
+        <v>4275865970.9884572</v>
+      </c>
+      <c r="AP105" s="31">
+        <f t="shared" si="78"/>
+        <v>4828754236.4393196</v>
+      </c>
+      <c r="AQ105" s="31">
+        <f t="shared" si="78"/>
+        <v>5453133384.941083</v>
+      </c>
+      <c r="AR105" s="31">
+        <f t="shared" si="78"/>
+        <v>6158247501.9243355</v>
+      </c>
+      <c r="AS105" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="AT105" s="43" t="s">
+        <v>106</v>
+      </c>
+      <c r="AU105" s="44">
         <f>(AU100*AU92)+(AU102*AU97)</f>
-        <v>0.12006966683399176</v>
+        <v>0.11890612209525878</v>
       </c>
     </row>
     <row r="106" spans="1:47" ht="19" x14ac:dyDescent="0.25">
-      <c r="A106" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F106" s="1">
-        <v>-3200000</v>
-      </c>
-      <c r="G106" s="1">
-        <v>-196200000</v>
-      </c>
-      <c r="H106" s="1">
-        <v>78100000</v>
-      </c>
-      <c r="I106" s="1">
-        <v>166600000</v>
-      </c>
-      <c r="J106" s="1">
-        <v>132559000</v>
-      </c>
-      <c r="K106" s="1">
-        <v>24431000</v>
-      </c>
-      <c r="L106" s="1">
-        <v>-8917000</v>
-      </c>
-      <c r="M106" s="1">
-        <v>-411781000</v>
-      </c>
-      <c r="N106" s="1">
-        <v>-286285000</v>
-      </c>
-      <c r="O106" s="1">
-        <v>-851757000</v>
-      </c>
-      <c r="P106" s="1">
-        <v>-359852000</v>
-      </c>
-      <c r="Q106" s="1">
-        <v>400078000</v>
-      </c>
-      <c r="R106" s="1">
-        <v>-511220000</v>
-      </c>
-      <c r="S106" s="1">
-        <v>-794057000</v>
-      </c>
-      <c r="T106" s="1">
-        <v>-274730000</v>
-      </c>
-      <c r="U106" s="1">
-        <v>-353616000</v>
-      </c>
-      <c r="V106" s="1">
-        <v>-30318000</v>
-      </c>
-      <c r="W106" s="1">
-        <v>-570000000</v>
-      </c>
-      <c r="X106" s="1">
-        <v>-1995000000</v>
-      </c>
-      <c r="Y106" s="1">
-        <v>-1316000000</v>
-      </c>
-      <c r="Z106" s="1">
-        <v>7000000</v>
-      </c>
-      <c r="AA106" s="1">
-        <v>-560000000</v>
-      </c>
-      <c r="AB106" s="1">
-        <v>132000000</v>
-      </c>
-      <c r="AC106" s="1">
-        <v>-471000000</v>
-      </c>
-      <c r="AD106" s="1">
-        <v>-232000000</v>
-      </c>
-      <c r="AE106" s="1">
-        <v>-193000000</v>
-      </c>
-      <c r="AF106" s="1">
-        <v>-322000000</v>
-      </c>
-      <c r="AG106" s="1">
-        <v>13000000</v>
-      </c>
-      <c r="AH106" s="1">
-        <v>-45000000</v>
-      </c>
-      <c r="AI106" s="1">
-        <v>-129000000</v>
-      </c>
-      <c r="AJ106" s="1">
-        <v>276000000</v>
-      </c>
-      <c r="AK106" s="1">
-        <v>777000000</v>
-      </c>
-      <c r="AL106" s="1">
-        <v>3220000000</v>
-      </c>
-      <c r="AM106" s="1">
-        <v>3565000000</v>
-      </c>
-      <c r="AN106" s="56">
-        <f>AM106*(1+$AU$106)</f>
-        <v>3969951639.9677625</v>
-      </c>
-      <c r="AO106" s="56">
-        <f t="shared" ref="AO106:AR106" si="94">AN106*(1+$AU$106)</f>
-        <v>4420902110.4299374</v>
-      </c>
-      <c r="AP106" s="56">
-        <f t="shared" si="94"/>
-        <v>4923076460.9925022</v>
-      </c>
-      <c r="AQ106" s="56">
-        <f t="shared" si="94"/>
-        <v>5482293259.4681263</v>
-      </c>
-      <c r="AR106" s="56">
-        <f t="shared" si="94"/>
-        <v>6105032010.1569977</v>
-      </c>
-      <c r="AS106" s="39" t="s">
-        <v>146</v>
-      </c>
-      <c r="AT106" s="40" t="s">
-        <v>147</v>
-      </c>
-      <c r="AU106" s="41">
+      <c r="A106" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="B106" s="1"/>
+      <c r="C106" s="15" t="e">
+        <f>(C107/B107)-1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D106" s="15" t="e">
+        <f>(D107/C107)-1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E106" s="15" t="e">
+        <f>(E107/D107)-1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F106" s="15" t="e">
+        <f>(F107/E107)-1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G106" s="15">
+        <f>(G107/F107)-1</f>
+        <v>60.3125</v>
+      </c>
+      <c r="H106" s="15">
+        <f>(H107/G107)-1</f>
+        <v>-1.3980632008154945</v>
+      </c>
+      <c r="I106" s="15">
+        <f>(I107/H107)-1</f>
+        <v>1.1331626120358513</v>
+      </c>
+      <c r="J106" s="15">
+        <f>(J107/I107)-1</f>
+        <v>-0.20432773109243696</v>
+      </c>
+      <c r="K106" s="15">
+        <f>(K107/J107)-1</f>
+        <v>-0.8156971612640409</v>
+      </c>
+      <c r="L106" s="15">
+        <f>(L107/K107)-1</f>
+        <v>-1.3649871065449632</v>
+      </c>
+      <c r="M106" s="15">
+        <f>(M107/L107)-1</f>
+        <v>45.179320399237412</v>
+      </c>
+      <c r="N106" s="15">
+        <f>(N107/M107)-1</f>
+        <v>-0.30476394005551499</v>
+      </c>
+      <c r="O106" s="15">
+        <f>(O107/N107)-1</f>
+        <v>1.9752065249663797</v>
+      </c>
+      <c r="P106" s="15">
+        <f>(P107/O107)-1</f>
+        <v>-0.57751800102611428</v>
+      </c>
+      <c r="Q106" s="15">
+        <f>(Q107/P107)-1</f>
+        <v>-2.1117848448806731</v>
+      </c>
+      <c r="R106" s="15">
+        <f>(R107/Q107)-1</f>
+        <v>-2.2778008288383766</v>
+      </c>
+      <c r="S106" s="15">
+        <f>(S107/R107)-1</f>
+        <v>0.55325887093619186</v>
+      </c>
+      <c r="T106" s="15">
+        <f>(T107/S107)-1</f>
+        <v>-0.65401728087530242</v>
+      </c>
+      <c r="U106" s="15">
+        <f>(U107/T107)-1</f>
+        <v>0.28714010119025946</v>
+      </c>
+      <c r="V106" s="15">
+        <f>(V107/U107)-1</f>
+        <v>-0.91426292927921815</v>
+      </c>
+      <c r="W106" s="15">
+        <f>(W107/V107)-1</f>
+        <v>17.800712448050664</v>
+      </c>
+      <c r="X106" s="15">
+        <f>(X107/W107)-1</f>
+        <v>2.5</v>
+      </c>
+      <c r="Y106" s="15">
+        <f>(Y107/X107)-1</f>
+        <v>-0.3403508771929824</v>
+      </c>
+      <c r="Z106" s="15">
+        <f>(Z107/Y107)-1</f>
+        <v>-1.0053191489361701</v>
+      </c>
+      <c r="AA106" s="15">
+        <f>(AA107/Z107)-1</f>
+        <v>-81</v>
+      </c>
+      <c r="AB106" s="15">
+        <f>(AB107/AA107)-1</f>
+        <v>-1.2357142857142858</v>
+      </c>
+      <c r="AC106" s="15">
+        <f>(AC107/AB107)-1</f>
+        <v>-4.5681818181818183</v>
+      </c>
+      <c r="AD106" s="15">
+        <f>(AD107/AC107)-1</f>
+        <v>-0.50743099787685775</v>
+      </c>
+      <c r="AE106" s="15">
+        <f>(AE107/AD107)-1</f>
+        <v>-0.1681034482758621</v>
+      </c>
+      <c r="AF106" s="15">
+        <f>(AF107/AE107)-1</f>
+        <v>0.66839378238341962</v>
+      </c>
+      <c r="AG106" s="15">
+        <f>(AG107/AF107)-1</f>
+        <v>-1.0403726708074534</v>
+      </c>
+      <c r="AH106" s="15">
+        <f>(AH107/AG107)-1</f>
+        <v>-4.4615384615384617</v>
+      </c>
+      <c r="AI106" s="15">
+        <f>(AI107/AH107)-1</f>
+        <v>1.8666666666666667</v>
+      </c>
+      <c r="AJ106" s="15">
+        <f>(AJ107/AI107)-1</f>
+        <v>-3.13953488372093</v>
+      </c>
+      <c r="AK106" s="15">
+        <f>(AK107/AJ107)-1</f>
+        <v>1.8152173913043477</v>
+      </c>
+      <c r="AL106" s="15">
+        <f>(AL107/AK107)-1</f>
+        <v>3.1441441441441444</v>
+      </c>
+      <c r="AM106" s="15">
+        <f>(AM107/AL107)-1</f>
+        <v>0.10714285714285721</v>
+      </c>
+      <c r="AN106" s="57">
+        <v>4684000000</v>
+      </c>
+      <c r="AO106" s="57">
+        <v>6818000000</v>
+      </c>
+      <c r="AP106" s="57">
+        <v>8557000000</v>
+      </c>
+      <c r="AQ106" s="57">
+        <v>12096000000</v>
+      </c>
+      <c r="AR106" s="57">
+        <v>15131000000</v>
+      </c>
+      <c r="AS106" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="AT106" s="45" t="s">
+        <v>144</v>
+      </c>
+      <c r="AU106" s="46">
         <f>(SUM(AN4:AR4)/5)</f>
-        <v>0.11359092285210717</v>
+        <v>0.1293043956948563</v>
       </c>
     </row>
     <row r="107" spans="1:47" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="5"/>
-      <c r="B107" s="13"/>
-      <c r="C107" s="13"/>
-      <c r="D107" s="13"/>
-      <c r="E107" s="13"/>
-      <c r="F107" s="13"/>
-      <c r="G107" s="13"/>
-      <c r="H107" s="13"/>
-      <c r="I107" s="13"/>
-      <c r="J107" s="13"/>
-      <c r="K107" s="13"/>
-      <c r="L107" s="13"/>
-      <c r="M107" s="13"/>
-      <c r="N107" s="13"/>
-      <c r="O107" s="13"/>
-      <c r="P107" s="13"/>
-      <c r="Q107" s="13"/>
-      <c r="R107" s="13"/>
-      <c r="S107" s="13"/>
-      <c r="T107" s="13"/>
-      <c r="U107" s="13"/>
-      <c r="V107" s="13"/>
-      <c r="W107" s="13"/>
-      <c r="X107" s="13"/>
-      <c r="Y107" s="13"/>
-      <c r="Z107" s="13"/>
-      <c r="AA107" s="13"/>
-      <c r="AB107" s="13"/>
-      <c r="AC107" s="13"/>
-      <c r="AD107" s="13"/>
-      <c r="AE107" s="13"/>
-      <c r="AF107" s="13"/>
-      <c r="AG107" s="13"/>
-      <c r="AH107" s="13"/>
-      <c r="AI107" s="13"/>
-      <c r="AJ107" s="13"/>
-      <c r="AK107" s="13"/>
-      <c r="AL107" s="13"/>
-      <c r="AM107" s="13"/>
-      <c r="AN107" s="39"/>
-      <c r="AO107" s="39"/>
-      <c r="AP107" s="39"/>
-      <c r="AQ107" s="39"/>
-      <c r="AR107" s="42">
+      <c r="A107" s="70" t="s">
+        <v>165</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F107" s="1">
+        <v>-3200000</v>
+      </c>
+      <c r="G107" s="1">
+        <v>-196200000</v>
+      </c>
+      <c r="H107" s="1">
+        <v>78100000</v>
+      </c>
+      <c r="I107" s="1">
+        <v>166600000</v>
+      </c>
+      <c r="J107" s="1">
+        <v>132559000</v>
+      </c>
+      <c r="K107" s="1">
+        <v>24431000</v>
+      </c>
+      <c r="L107" s="1">
+        <v>-8917000</v>
+      </c>
+      <c r="M107" s="1">
+        <v>-411781000</v>
+      </c>
+      <c r="N107" s="1">
+        <v>-286285000</v>
+      </c>
+      <c r="O107" s="1">
+        <v>-851757000</v>
+      </c>
+      <c r="P107" s="1">
+        <v>-359852000</v>
+      </c>
+      <c r="Q107" s="1">
+        <v>400078000</v>
+      </c>
+      <c r="R107" s="1">
+        <v>-511220000</v>
+      </c>
+      <c r="S107" s="1">
+        <v>-794057000</v>
+      </c>
+      <c r="T107" s="1">
+        <v>-274730000</v>
+      </c>
+      <c r="U107" s="1">
+        <v>-353616000</v>
+      </c>
+      <c r="V107" s="1">
+        <v>-30318000</v>
+      </c>
+      <c r="W107" s="1">
+        <v>-570000000</v>
+      </c>
+      <c r="X107" s="1">
+        <v>-1995000000</v>
+      </c>
+      <c r="Y107" s="1">
+        <v>-1316000000</v>
+      </c>
+      <c r="Z107" s="1">
+        <v>7000000</v>
+      </c>
+      <c r="AA107" s="1">
+        <v>-560000000</v>
+      </c>
+      <c r="AB107" s="1">
+        <v>132000000</v>
+      </c>
+      <c r="AC107" s="1">
+        <v>-471000000</v>
+      </c>
+      <c r="AD107" s="1">
+        <v>-232000000</v>
+      </c>
+      <c r="AE107" s="1">
+        <v>-193000000</v>
+      </c>
+      <c r="AF107" s="1">
+        <v>-322000000</v>
+      </c>
+      <c r="AG107" s="1">
+        <v>13000000</v>
+      </c>
+      <c r="AH107" s="1">
+        <v>-45000000</v>
+      </c>
+      <c r="AI107" s="1">
+        <v>-129000000</v>
+      </c>
+      <c r="AJ107" s="1">
+        <v>276000000</v>
+      </c>
+      <c r="AK107" s="1">
+        <v>777000000</v>
+      </c>
+      <c r="AL107" s="1">
+        <v>3220000000</v>
+      </c>
+      <c r="AM107" s="1">
+        <v>3565000000</v>
+      </c>
+      <c r="AN107" s="29"/>
+      <c r="AO107" s="29"/>
+      <c r="AP107" s="29"/>
+      <c r="AQ107" s="29"/>
+      <c r="AR107" s="69">
         <f>AR106*(1+AU107)/(AU108-AU107)</f>
-        <v>74276864664.852448</v>
-      </c>
-      <c r="AS107" s="43" t="s">
-        <v>148</v>
-      </c>
-      <c r="AT107" s="44" t="s">
-        <v>149</v>
-      </c>
-      <c r="AU107" s="45">
+        <v>186644128091.39847</v>
+      </c>
+      <c r="AS107" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="AT107" s="47" t="s">
+        <v>146</v>
+      </c>
+      <c r="AU107" s="48">
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="108" spans="1:47" ht="19" x14ac:dyDescent="0.25">
-      <c r="AN108" s="42">
-        <f t="shared" ref="AN108:AP108" si="95">AN107+AN106</f>
-        <v>3969951639.9677625</v>
-      </c>
-      <c r="AO108" s="42">
-        <f t="shared" si="95"/>
-        <v>4420902110.4299374</v>
-      </c>
-      <c r="AP108" s="42">
-        <f t="shared" si="95"/>
-        <v>4923076460.9925022</v>
-      </c>
-      <c r="AQ108" s="42">
-        <f>AQ107+AQ106</f>
-        <v>5482293259.4681263</v>
-      </c>
-      <c r="AR108" s="42">
+      <c r="AN108" s="69">
+        <f t="shared" ref="AN108:AQ108" si="79">AN107+AN106</f>
+        <v>4684000000</v>
+      </c>
+      <c r="AO108" s="69">
+        <f t="shared" si="79"/>
+        <v>6818000000</v>
+      </c>
+      <c r="AP108" s="69">
+        <f t="shared" si="79"/>
+        <v>8557000000</v>
+      </c>
+      <c r="AQ108" s="69">
+        <f t="shared" si="79"/>
+        <v>12096000000</v>
+      </c>
+      <c r="AR108" s="69">
         <f>AR107+AR106</f>
-        <v>80381896675.009445</v>
-      </c>
-      <c r="AS108" s="43" t="s">
-        <v>144</v>
-      </c>
-      <c r="AT108" s="46" t="s">
-        <v>150</v>
-      </c>
-      <c r="AU108" s="47">
+        <v>201775128091.39847</v>
+      </c>
+      <c r="AS108" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="AT108" s="49" t="s">
+        <v>147</v>
+      </c>
+      <c r="AU108" s="46">
         <f>AU105</f>
-        <v>0.12006966683399176</v>
+        <v>0.11890612209525878</v>
       </c>
     </row>
     <row r="109" spans="1:47" ht="19" x14ac:dyDescent="0.25">
-      <c r="AN109" s="59" t="s">
-        <v>151</v>
-      </c>
-      <c r="AO109" s="60"/>
+      <c r="AN109" s="50" t="s">
+        <v>148</v>
+      </c>
+      <c r="AO109" s="50"/>
     </row>
     <row r="110" spans="1:47" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN110" s="48" t="s">
-        <v>152</v>
-      </c>
-      <c r="AO110" s="49">
+      <c r="AN110" s="51" t="s">
+        <v>149</v>
+      </c>
+      <c r="AO110" s="41">
         <f>NPV(AU108,AN108,AO108,AP108,AQ108,AR108)</f>
-        <v>59651645384.181602</v>
+        <v>138511428065.30292</v>
       </c>
     </row>
     <row r="111" spans="1:47" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN111" s="48" t="s">
-        <v>153</v>
-      </c>
-      <c r="AO111" s="49">
+      <c r="AN111" s="51" t="s">
+        <v>150</v>
+      </c>
+      <c r="AO111" s="41">
         <f>AM40</f>
         <v>5855000000</v>
       </c>
     </row>
     <row r="112" spans="1:47" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN112" s="48" t="s">
-        <v>140</v>
-      </c>
-      <c r="AO112" s="49">
+      <c r="AN112" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="AO112" s="41">
         <f>AU99</f>
         <v>2863000000</v>
       </c>
     </row>
     <row r="113" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN113" s="48" t="s">
-        <v>154</v>
-      </c>
-      <c r="AO113" s="49">
+      <c r="AN113" s="51" t="s">
+        <v>151</v>
+      </c>
+      <c r="AO113" s="41">
         <f>AO110+AO111-AO112</f>
-        <v>62643645384.181602</v>
+        <v>141503428065.30292</v>
       </c>
     </row>
     <row r="114" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN114" s="48" t="s">
-        <v>159</v>
-      </c>
-      <c r="AO114" s="50" cm="1">
-        <f t="array" ref="AO114">_FV(A1,"Shares outstanding",TRUE)</f>
-        <v>1610362000</v>
+      <c r="AN114" s="51" t="s">
+        <v>166</v>
+      </c>
+      <c r="AO114" s="71">
+        <f>AM34*(1+(5*0.05))</f>
+        <v>1963750000</v>
       </c>
     </row>
     <row r="115" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN115" s="51" t="s">
-        <v>155</v>
-      </c>
-      <c r="AO115" s="52">
+      <c r="AN115" s="52" t="s">
+        <v>152</v>
+      </c>
+      <c r="AO115" s="53">
         <f>AO113/AO114</f>
-        <v>38.900349973596995</v>
+        <v>72.057760949867813</v>
       </c>
     </row>
     <row r="116" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN116" s="48" t="s">
-        <v>156</v>
-      </c>
-      <c r="AO116" s="57" cm="1">
+      <c r="AN116" s="51" t="s">
+        <v>153</v>
+      </c>
+      <c r="AO116" s="54" cm="1">
         <f t="array" ref="AO116">_FV(A1,"Price")</f>
-        <v>110.7</v>
+        <v>113.17</v>
       </c>
     </row>
     <row r="117" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN117" s="53" t="s">
-        <v>157</v>
-      </c>
-      <c r="AO117" s="54">
+      <c r="AN117" s="52" t="s">
+        <v>154</v>
+      </c>
+      <c r="AO117" s="55">
         <f>AO115/AO116-1</f>
-        <v>-0.64859665787175258</v>
+        <v>-0.3632785990115065</v>
       </c>
     </row>
     <row r="118" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN118" s="53" t="s">
-        <v>158</v>
-      </c>
-      <c r="AO118" s="55" t="str">
+      <c r="AN118" s="52" t="s">
+        <v>155</v>
+      </c>
+      <c r="AO118" s="56" t="str">
         <f>IF(AO115&gt;AO116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
@@ -16730,8 +17096,9 @@
     <hyperlink ref="AM36" r:id="rId76" tooltip="https://www.sec.gov/Archives/edgar/data/2488/000000248823000047/0000002488-23-000047-index.htm" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
     <hyperlink ref="AM74" r:id="rId77" tooltip="https://www.sec.gov/Archives/edgar/data/2488/000000248823000047/0000002488-23-000047-index.htm" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
     <hyperlink ref="AN1" r:id="rId78" display="https://finbox.com/NASDAQGS:AMD/explorer/revenue_proj" xr:uid="{C152B412-99C5-714B-8A29-37D0C7E6C5DF}"/>
+    <hyperlink ref="AS106" r:id="rId79" xr:uid="{118AB855-784B-BE4A-BC72-9D5A83BA4331}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId79"/>
+  <drawing r:id="rId80"/>
 </worksheet>
 </file>
--- a/Technology/Hardware/AMD.xlsx
+++ b/Technology/Hardware/AMD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2D024E8-CE8A-F24A-961B-C59DC75B40DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8081A675-BA6A-094F-83F0-DE413C4CDB6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="22540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1262" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1261" uniqueCount="167">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -585,8 +585,8 @@
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="170" formatCode="0.0"/>
-    <numFmt numFmtId="171" formatCode="0.0%"/>
+    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="169" formatCode="0.0%"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -874,7 +874,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -921,12 +921,6 @@
     <xf numFmtId="9" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -935,74 +929,61 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="39" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="39" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="16" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="16" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1014,9 +995,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1069,10 +1060,17 @@
               <a:rPr lang="en-US" sz="2400"/>
               <a:t>AMD</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.46260720875237132"/>
+          <c:y val="3.8235294117647062E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1106,10 +1104,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="9.8570016474464575E-2"/>
-          <c:y val="0.14235631229828011"/>
-          <c:w val="0.84343986820428341"/>
-          <c:h val="0.65397904404762752"/>
+          <c:x val="9.2132013201320126E-2"/>
+          <c:y val="0.16626470588235295"/>
+          <c:w val="0.82733993399339945"/>
+          <c:h val="0.58999930523390454"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1166,6 +1164,126 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$C$1:$AM$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Sheet 1'!$C$3:$AM$3</c:f>
@@ -1288,7 +1406,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7FC0-F340-B759-6D1E10A81675}"/>
+              <c16:uniqueId val="{00000000-272F-6E45-8CC9-0A32AE623203}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1297,11 +1415,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$19:$B$19</c:f>
+              <c:f>'Sheet 1'!$A$28:$B$28</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>EBITDA</c:v>
+                  <c:v>Net Income</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>- -</c:v>
@@ -1342,129 +1460,249 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$C$1:$AM$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$C$19:$AM$19</c:f>
+              <c:f>'Sheet 1'!$C$28:$AM$28</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
                 <c:ptCount val="37"/>
                 <c:pt idx="0">
-                  <c:v>28100000</c:v>
+                  <c:v>-36600000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>107100000</c:v>
+                  <c:v>-48100000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>172500000</c:v>
+                  <c:v>19300000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>186300000</c:v>
+                  <c:v>46100000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>74700000</c:v>
+                  <c:v>-53600000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>301200000</c:v>
+                  <c:v>145300000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>423900000</c:v>
+                  <c:v>245000000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>492819000</c:v>
+                  <c:v>228781000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>674953000</c:v>
+                  <c:v>305266000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>675760000</c:v>
+                  <c:v>300521000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>178682000</c:v>
+                  <c:v>-68950000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>318220000</c:v>
+                  <c:v>-21090000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>271683000</c:v>
+                  <c:v>-103960000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>593934000</c:v>
+                  <c:v>-88936000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1818964000</c:v>
+                  <c:v>983026000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>547823000</c:v>
+                  <c:v>-60581000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-502257000</c:v>
+                  <c:v>-1303012000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>724109000</c:v>
+                  <c:v>-274490000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1321246000</c:v>
+                  <c:v>91156000</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1378185000</c:v>
+                  <c:v>165483000</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>694000000</c:v>
+                  <c:v>-166000000</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-2218000000</c:v>
+                  <c:v>-3379000000</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-1807000000</c:v>
+                  <c:v>-3098000000</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2054000000</c:v>
+                  <c:v>376000000</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1091000000</c:v>
+                  <c:v>471000000</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>984000000</c:v>
+                  <c:v>491000000</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-782000000</c:v>
+                  <c:v>-1183000000</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>339000000</c:v>
+                  <c:v>-83000000</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-18000000</c:v>
+                  <c:v>-403000000</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-319000000</c:v>
+                  <c:v>-660000000</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-169000000</c:v>
+                  <c:v>-497000000</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>332000000</c:v>
+                  <c:v>43000000</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>619000000</c:v>
+                  <c:v>337000000</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>724000000</c:v>
+                  <c:v>341000000</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1681000000</c:v>
+                  <c:v>2490000000</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>4172000000</c:v>
+                  <c:v>3162000000</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3386000000</c:v>
+                  <c:v>1320000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-7FC0-F340-B759-6D1E10A81675}"/>
+              <c16:uniqueId val="{00000001-272F-6E45-8CC9-0A32AE623203}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1518,6 +1756,126 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$C$1:$AM$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Sheet 1'!$C$107:$AM$107</c:f>
@@ -1640,7 +1998,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-7FC0-F340-B759-6D1E10A81675}"/>
+              <c16:uniqueId val="{00000002-272F-6E45-8CC9-0A32AE623203}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1654,11 +2012,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="1305628528"/>
-        <c:axId val="1305630256"/>
+        <c:axId val="322859584"/>
+        <c:axId val="322350512"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1305628528"/>
+        <c:axId val="322859584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1686,7 +2044,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx2"/>
                 </a:solidFill>
@@ -1698,7 +2056,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1305630256"/>
+        <c:crossAx val="322350512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1706,7 +2064,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1305630256"/>
+        <c:axId val="322350512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1755,7 +2113,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1305628528"/>
+        <c:crossAx val="322859584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1773,10 +2131,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.33446919794004332"/>
-          <c:y val="0.90164293811088847"/>
-          <c:w val="0.36269247233716873"/>
-          <c:h val="4.9783858984840008E-2"/>
+          <c:x val="0.32752142615836388"/>
+          <c:y val="0.89853381194997684"/>
+          <c:w val="0.37399994802629871"/>
+          <c:h val="6.0289717461787865E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2356,22 +2714,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>41</xdr:col>
-      <xdr:colOff>15874</xdr:colOff>
+      <xdr:colOff>15875</xdr:colOff>
       <xdr:row>108</xdr:row>
-      <xdr:rowOff>25399</xdr:rowOff>
+      <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>47</xdr:col>
-      <xdr:colOff>31749</xdr:colOff>
-      <xdr:row>124</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:colOff>15875</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>174625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39921940-BF02-9B2D-B988-F4B5303F5190}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1CB6CC6-9FF2-BC51-ECA9-2BCE5A2B40EF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2399,9 +2757,7 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="Factor Scoring"/>
-      <sheetName val="Factor Investing"/>
-      <sheetName val="Concentrated"/>
+      <sheetName val="Treasuries"/>
       <sheetName val="Hardware"/>
       <sheetName val="Software"/>
       <sheetName val="Consumer"/>
@@ -2410,20 +2766,23 @@
       <sheetName val="Industrials"/>
       <sheetName val="Real Estate"/>
       <sheetName val="Fashion + Beauty"/>
-      <sheetName val="Treasuries"/>
-      <sheetName val="All Stars"/>
-      <sheetName val="ROIC Port"/>
-      <sheetName val="To Be Modeled"/>
-      <sheetName val="My Holdings"/>
       <sheetName val="My Stocks"/>
-      <sheetName val="Stable Growth"/>
-      <sheetName val="High Growth"/>
-      <sheetName val="Small Caps"/>
+      <sheetName val="Profitable Software"/>
       <sheetName val="Compounders"/>
-      <sheetName val="Private Companies"/>
+      <sheetName val="GARP"/>
+      <sheetName val="Value"/>
+      <sheetName val="Aggressive Growth"/>
+      <sheetName val="Other"/>
+      <sheetName val="Short List"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0">
+        <row r="8">
+          <cell r="C8">
+            <v>3.9120000000000002E-2</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
@@ -2434,23 +2793,12 @@
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
-      <sheetData sheetId="11">
-        <row r="8">
-          <cell r="C8">
-            <v>4.0410000000000001E-2</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3196,10 +3544,10 @@
   <dimension ref="A1:AV118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AB63" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AJ2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AO94" sqref="AO94"/>
+      <selection pane="bottomRight" activeCell="AP12" sqref="AP12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3628,151 +3976,151 @@
         <v>93</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="15" t="e">
+      <c r="C4" s="68" t="e">
         <f>(C3/B3)-1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="68">
         <f>(D3/C3)-1</f>
         <v>0.73077590696059702</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="68">
         <f>(E3/D3)-1</f>
         <v>0.12917460635843958</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="68">
         <f t="shared" ref="F4:Z4" si="0">(F3/E3)-1</f>
         <v>-1.8918198774313888E-2</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="68">
         <f t="shared" si="0"/>
         <v>-4.1100850986782511E-2</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="68">
         <f t="shared" si="0"/>
         <v>0.15804380664652573</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4" s="68">
         <f t="shared" si="0"/>
         <v>0.23471384314364907</v>
       </c>
-      <c r="J4" s="16">
+      <c r="J4" s="68">
         <f t="shared" si="0"/>
         <v>8.8332783096731537E-2</v>
       </c>
-      <c r="K4" s="16">
+      <c r="K4" s="68">
         <f t="shared" si="0"/>
         <v>0.29510762734486851</v>
       </c>
-      <c r="L4" s="16">
+      <c r="L4" s="68">
         <f t="shared" si="0"/>
         <v>0.13820396308614802</v>
       </c>
-      <c r="M4" s="16">
+      <c r="M4" s="68">
         <f t="shared" si="0"/>
         <v>-0.19619718124363095</v>
       </c>
-      <c r="N4" s="16">
+      <c r="N4" s="68">
         <f t="shared" si="0"/>
         <v>0.20652948076798028</v>
       </c>
-      <c r="O4" s="16">
+      <c r="O4" s="68">
         <f t="shared" si="0"/>
         <v>7.8835499443000279E-2</v>
       </c>
-      <c r="P4" s="16">
+      <c r="P4" s="68">
         <f t="shared" si="0"/>
         <v>0.12409343148157403</v>
       </c>
-      <c r="Q4" s="16">
+      <c r="Q4" s="68">
         <f t="shared" si="0"/>
         <v>0.62520314221284679</v>
       </c>
-      <c r="R4" s="16">
+      <c r="R4" s="68">
         <f t="shared" si="0"/>
         <v>-0.1620160859155757</v>
       </c>
-      <c r="S4" s="16">
+      <c r="S4" s="68">
         <f t="shared" si="0"/>
         <v>-0.30698882817362039</v>
       </c>
-      <c r="T4" s="16">
+      <c r="T4" s="68">
         <f t="shared" si="0"/>
         <v>0.30483135331507372</v>
       </c>
-      <c r="U4" s="16">
+      <c r="U4" s="68">
         <f t="shared" si="0"/>
         <v>0.42119813546838336</v>
       </c>
-      <c r="V4" s="16">
+      <c r="V4" s="68">
         <f t="shared" si="0"/>
         <v>0.16917984538437469</v>
       </c>
-      <c r="W4" s="16">
+      <c r="W4" s="68">
         <f t="shared" si="0"/>
         <v>-3.3958851674804835E-2</v>
       </c>
-      <c r="X4" s="16">
+      <c r="X4" s="68">
         <f t="shared" si="0"/>
         <v>6.4436183395291113E-2</v>
       </c>
-      <c r="Y4" s="16">
+      <c r="Y4" s="68">
         <f t="shared" si="0"/>
         <v>-3.4092798935639435E-2</v>
       </c>
-      <c r="Z4" s="16">
+      <c r="Z4" s="68">
         <f t="shared" si="0"/>
         <v>-6.973140495867769E-2</v>
       </c>
-      <c r="AA4" s="16">
+      <c r="AA4" s="68">
         <f t="shared" ref="AA4" si="1">(AA3/Z3)-1</f>
         <v>0.20192485656116976</v>
       </c>
-      <c r="AB4" s="16">
+      <c r="AB4" s="68">
         <f t="shared" ref="AB4" si="2">(AB3/AA3)-1</f>
         <v>1.1395133969818394E-2</v>
       </c>
-      <c r="AC4" s="16">
+      <c r="AC4" s="68">
         <f t="shared" ref="AC4" si="3">(AC3/AB3)-1</f>
         <v>-0.17448233861144946</v>
       </c>
-      <c r="AD4" s="16">
+      <c r="AD4" s="68">
         <f t="shared" ref="AD4" si="4">(AD3/AC3)-1</f>
         <v>-2.2685355957211328E-2</v>
       </c>
-      <c r="AE4" s="16">
+      <c r="AE4" s="68">
         <f t="shared" ref="AE4" si="5">(AE3/AD3)-1</f>
         <v>3.9063974334780038E-2</v>
       </c>
-      <c r="AF4" s="16">
+      <c r="AF4" s="68">
         <f t="shared" ref="AF4" si="6">(AF3/AE3)-1</f>
         <v>-0.27515437704322554</v>
       </c>
-      <c r="AG4" s="16">
+      <c r="AG4" s="68">
         <f t="shared" ref="AG4" si="7">(AG3/AF3)-1</f>
         <v>7.0408418942620843E-2</v>
       </c>
-      <c r="AH4" s="16">
+      <c r="AH4" s="68">
         <f t="shared" ref="AH4" si="8">(AH3/AG3)-1</f>
         <v>0.24742509363295873</v>
       </c>
-      <c r="AI4" s="16">
+      <c r="AI4" s="68">
         <f t="shared" ref="AI4" si="9">(AI3/AH3)-1</f>
         <v>0.21504972790392185</v>
       </c>
-      <c r="AJ4" s="16">
+      <c r="AJ4" s="68">
         <f t="shared" ref="AJ4" si="10">(AJ3/AI3)-1</f>
         <v>3.9536679536679609E-2</v>
       </c>
-      <c r="AK4" s="16">
+      <c r="AK4" s="68">
         <f t="shared" ref="AK4" si="11">(AK3/AJ3)-1</f>
         <v>0.45045312732134901</v>
       </c>
-      <c r="AL4" s="16">
+      <c r="AL4" s="68">
         <f t="shared" ref="AL4" si="12">(AL3/AK3)-1</f>
         <v>0.68329406944586712</v>
       </c>
-      <c r="AM4" s="16">
+      <c r="AM4" s="68">
         <f t="shared" ref="AM4:AR4" si="13">(AM3/AL3)-1</f>
         <v>0.43610806863818907</v>
       </c>
@@ -5416,15 +5764,15 @@
         <f>(AM35+AL35+AK35+AJ35+AI35)/5</f>
         <v>9.0174755504254453E-2</v>
       </c>
-      <c r="AT16" s="26">
+      <c r="AT16" s="52">
         <f>AU101/AM3</f>
         <v>7.7219058514469729</v>
       </c>
-      <c r="AU16" s="26">
+      <c r="AU16" s="52">
         <f>AU101/AM28</f>
         <v>138.06416666666667</v>
       </c>
-      <c r="AV16" s="27">
+      <c r="AV16" s="54">
         <f>AU101/AM107</f>
         <v>51.120532959326788</v>
       </c>
@@ -5797,34 +6145,34 @@
       <c r="AM19" s="10">
         <v>3386000000</v>
       </c>
-      <c r="AN19" s="64">
+      <c r="AN19" s="57">
         <v>5826000000</v>
       </c>
-      <c r="AO19" s="64">
+      <c r="AO19" s="57">
         <v>8712000000</v>
       </c>
-      <c r="AP19" s="64">
+      <c r="AP19" s="57">
         <v>10619000000</v>
       </c>
-      <c r="AQ19" s="64">
+      <c r="AQ19" s="57">
         <v>15262000000</v>
       </c>
-      <c r="AR19" s="64">
+      <c r="AR19" s="57">
         <v>17971000000</v>
       </c>
-      <c r="AS19" s="28">
+      <c r="AS19" s="26">
         <f>AM40-AM56-AM61</f>
         <v>2992000000</v>
       </c>
-      <c r="AT19" s="59">
+      <c r="AT19" s="52">
         <f>AU101/AN3</f>
         <v>8.0315852099951517</v>
       </c>
-      <c r="AU19" s="60">
+      <c r="AU19" s="53">
         <f>AO116/AN31</f>
         <v>39.159169550173011</v>
       </c>
-      <c r="AV19" s="61">
+      <c r="AV19" s="54">
         <f>AU101/AN106</f>
         <v>38.907920580700257</v>
       </c>
@@ -6121,23 +6469,23 @@
       <c r="AM21" s="2">
         <v>0.14349999999999999</v>
       </c>
-      <c r="AN21" s="65">
+      <c r="AN21" s="58">
         <f>AN19/AN3</f>
         <v>0.25675377903133401</v>
       </c>
-      <c r="AO21" s="65">
+      <c r="AO21" s="58">
         <f t="shared" ref="AO21:AR21" si="35">AO19/AO3</f>
         <v>0.32278621711745092</v>
       </c>
-      <c r="AP21" s="65">
+      <c r="AP21" s="58">
         <f t="shared" si="35"/>
         <v>0.34782181460858175</v>
       </c>
-      <c r="AQ21" s="65">
+      <c r="AQ21" s="58">
         <f t="shared" si="35"/>
         <v>0.397820873735794</v>
       </c>
-      <c r="AR21" s="65">
+      <c r="AR21" s="58">
         <f t="shared" si="35"/>
         <v>0.42282716107477297</v>
       </c>
@@ -6266,11 +6614,11 @@
       <c r="AM22" s="10">
         <v>1264000000</v>
       </c>
-      <c r="AU22" s="62" t="e">
+      <c r="AU22" s="55">
         <f>(-1*AM98)/AU101</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AV22" s="63">
+        <v>0</v>
+      </c>
+      <c r="AV22" s="56">
         <f>AM107/AU101</f>
         <v>1.9561611393911594E-2</v>
       </c>
@@ -6988,19 +7336,19 @@
       <c r="AM28" s="11">
         <v>1320000000</v>
       </c>
-      <c r="AN28" s="66">
+      <c r="AN28" s="59">
         <v>4657000000</v>
       </c>
-      <c r="AO28" s="66">
+      <c r="AO28" s="59">
         <v>6553000000</v>
       </c>
-      <c r="AP28" s="66">
+      <c r="AP28" s="59">
         <v>8168000000</v>
       </c>
-      <c r="AQ28" s="66">
+      <c r="AQ28" s="59">
         <v>13390000000</v>
       </c>
-      <c r="AR28" s="66">
+      <c r="AR28" s="59">
         <v>14979000000</v>
       </c>
     </row>
@@ -7296,23 +7644,23 @@
       <c r="AM30" s="2">
         <v>5.5899999999999998E-2</v>
       </c>
-      <c r="AN30" s="67">
+      <c r="AN30" s="60">
         <f>AN28/AN3</f>
         <v>0.20523555594729187</v>
       </c>
-      <c r="AO30" s="67">
+      <c r="AO30" s="60">
         <f t="shared" ref="AO30:AR30" si="55">AO28/AO3</f>
         <v>0.24279362726935902</v>
       </c>
-      <c r="AP30" s="67">
+      <c r="AP30" s="60">
         <f t="shared" si="55"/>
         <v>0.26754012446773667</v>
       </c>
-      <c r="AQ30" s="67">
+      <c r="AQ30" s="60">
         <f t="shared" si="55"/>
         <v>0.34902512772390781</v>
       </c>
-      <c r="AR30" s="67">
+      <c r="AR30" s="60">
         <f t="shared" si="55"/>
         <v>0.35243047386005366</v>
       </c>
@@ -7435,19 +7783,19 @@
       <c r="AM31" s="12">
         <v>0.85</v>
       </c>
-      <c r="AN31" s="68">
+      <c r="AN31" s="61">
         <v>2.89</v>
       </c>
-      <c r="AO31" s="68">
+      <c r="AO31" s="61">
         <v>4.07</v>
       </c>
-      <c r="AP31" s="68">
+      <c r="AP31" s="61">
         <v>5.07</v>
       </c>
-      <c r="AQ31" s="68">
+      <c r="AQ31" s="61">
         <v>8.31</v>
       </c>
-      <c r="AR31" s="68">
+      <c r="AR31" s="61">
         <v>9.3000000000000007</v>
       </c>
     </row>
@@ -13711,10 +14059,10 @@
       <c r="AM83" s="1">
         <v>-1401000000</v>
       </c>
-      <c r="AT83" s="32" t="s">
+      <c r="AT83" s="65" t="s">
         <v>124</v>
       </c>
-      <c r="AU83" s="33"/>
+      <c r="AU83" s="66"/>
     </row>
     <row r="84" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -13834,10 +14182,10 @@
       <c r="AM84" s="1">
         <v>931000000</v>
       </c>
-      <c r="AT84" s="34" t="s">
+      <c r="AT84" s="67" t="s">
         <v>125</v>
       </c>
-      <c r="AU84" s="34"/>
+      <c r="AU84" s="67"/>
     </row>
     <row r="85" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -13957,10 +14305,10 @@
       <c r="AM85" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AT85" s="35" t="s">
+      <c r="AT85" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="AU85" s="36">
+      <c r="AU85" s="31">
         <f>AM17</f>
         <v>88000000</v>
       </c>
@@ -14083,10 +14431,10 @@
       <c r="AM86" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AT86" s="35" t="s">
+      <c r="AT86" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="AU86" s="36">
+      <c r="AU86" s="31">
         <f>AM56</f>
         <v>0</v>
       </c>
@@ -14209,10 +14557,10 @@
       <c r="AM87" s="10">
         <v>3565000000</v>
       </c>
-      <c r="AT87" s="35" t="s">
+      <c r="AT87" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="AU87" s="36">
+      <c r="AU87" s="31">
         <f>AM61</f>
         <v>2863000000</v>
       </c>
@@ -14335,10 +14683,10 @@
       <c r="AM88" s="1">
         <v>-450000000</v>
       </c>
-      <c r="AT88" s="37" t="s">
+      <c r="AT88" s="32" t="s">
         <v>129</v>
       </c>
-      <c r="AU88" s="38">
+      <c r="AU88" s="33">
         <f>AU85/(AU86+AU87)</f>
         <v>3.0736989172196996E-2</v>
       </c>
@@ -14499,10 +14847,10 @@
         <f t="shared" si="76"/>
         <v>1.9066988686920045E-2</v>
       </c>
-      <c r="AT89" s="35" t="s">
+      <c r="AT89" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="AU89" s="36">
+      <c r="AU89" s="31">
         <f>AM27</f>
         <v>122000000</v>
       </c>
@@ -14625,10 +14973,10 @@
       <c r="AM90" s="1">
         <v>-1377000000</v>
       </c>
-      <c r="AT90" s="35" t="s">
+      <c r="AT90" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="AU90" s="36">
+      <c r="AU90" s="31">
         <f>AM25</f>
         <v>1184000000</v>
       </c>
@@ -14751,10 +15099,10 @@
       <c r="AM91" s="1">
         <v>-2667000000</v>
       </c>
-      <c r="AT91" s="37" t="s">
+      <c r="AT91" s="32" t="s">
         <v>130</v>
       </c>
-      <c r="AU91" s="38">
+      <c r="AU91" s="33">
         <f>AU89/AU90</f>
         <v>0.10304054054054054</v>
       </c>
@@ -14877,10 +15225,10 @@
       <c r="AM92" s="1">
         <v>4310000000</v>
       </c>
-      <c r="AT92" s="37" t="s">
+      <c r="AT92" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="AU92" s="38">
+      <c r="AU92" s="33">
         <f>AU88*(1-AU91)</f>
         <v>2.7569833193305075E-2</v>
       </c>
@@ -15003,10 +15351,10 @@
       <c r="AM93" s="1">
         <v>2183000000</v>
       </c>
-      <c r="AT93" s="34" t="s">
+      <c r="AT93" s="67" t="s">
         <v>132</v>
       </c>
-      <c r="AU93" s="34"/>
+      <c r="AU93" s="67"/>
     </row>
     <row r="94" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -15126,12 +15474,12 @@
       <c r="AM94" s="10">
         <v>1999000000</v>
       </c>
-      <c r="AT94" s="35" t="s">
+      <c r="AT94" s="30" t="s">
         <v>133</v>
       </c>
-      <c r="AU94" s="58">
+      <c r="AU94" s="34">
         <f>[1]Treasuries!$C$8</f>
-        <v>4.0410000000000001E-2</v>
+        <v>3.9120000000000002E-2</v>
       </c>
     </row>
     <row r="95" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15252,10 +15600,10 @@
       <c r="AM95" s="1">
         <v>-312000000</v>
       </c>
-      <c r="AT95" s="35" t="s">
+      <c r="AT95" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="AU95" s="40" cm="1">
+      <c r="AU95" s="35" cm="1">
         <f t="array" ref="AU95">_FV(A1,"Beta")</f>
         <v>1.8337000000000001</v>
       </c>
@@ -15378,10 +15726,10 @@
       <c r="AM96" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AT96" s="35" t="s">
+      <c r="AT96" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="AU96" s="39">
+      <c r="AU96" s="34">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -15503,12 +15851,12 @@
       <c r="AM97" s="1">
         <v>-3702000000</v>
       </c>
-      <c r="AT97" s="37" t="s">
+      <c r="AT97" s="32" t="s">
         <v>136</v>
       </c>
-      <c r="AU97" s="38">
+      <c r="AU97" s="33">
         <f>(AU94)+((AU95)*(AU96-AU94))</f>
-        <v>0.12034098300000001</v>
+        <v>0.12141645600000001</v>
       </c>
     </row>
     <row r="98" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -15626,13 +15974,13 @@
       <c r="AL98" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AM98" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AT98" s="34" t="s">
+      <c r="AM98" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT98" s="67" t="s">
         <v>137</v>
       </c>
-      <c r="AU98" s="34"/>
+      <c r="AU98" s="67"/>
     </row>
     <row r="99" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -15752,10 +16100,10 @@
       <c r="AM99" s="1">
         <v>750000000</v>
       </c>
-      <c r="AT99" s="35" t="s">
+      <c r="AT99" s="30" t="s">
         <v>138</v>
       </c>
-      <c r="AU99" s="36">
+      <c r="AU99" s="31">
         <f>AU86+AU87</f>
         <v>2863000000</v>
       </c>
@@ -15878,10 +16226,10 @@
       <c r="AM100" s="10">
         <v>-3264000000</v>
       </c>
-      <c r="AT100" s="37" t="s">
+      <c r="AT100" s="32" t="s">
         <v>139</v>
       </c>
-      <c r="AU100" s="38">
+      <c r="AU100" s="33">
         <f>AU99/AU103</f>
         <v>1.5466671564716108E-2</v>
       </c>
@@ -16004,10 +16352,10 @@
       <c r="AM101" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AT101" s="35" t="s">
+      <c r="AT101" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="AU101" s="41" cm="1">
+      <c r="AU101" s="36" cm="1">
         <f t="array" ref="AU101">_FV(A1,"Market cap",TRUE)</f>
         <v>182244700000</v>
       </c>
@@ -16130,10 +16478,10 @@
       <c r="AM102" s="10">
         <v>2300000000</v>
       </c>
-      <c r="AT102" s="37" t="s">
+      <c r="AT102" s="32" t="s">
         <v>141</v>
       </c>
-      <c r="AU102" s="38">
+      <c r="AU102" s="33">
         <f>AU101/AU103</f>
         <v>0.98453332843528385</v>
       </c>
@@ -16256,10 +16604,10 @@
       <c r="AM103" s="1">
         <v>2535000000</v>
       </c>
-      <c r="AT103" s="37" t="s">
+      <c r="AT103" s="32" t="s">
         <v>142</v>
       </c>
-      <c r="AU103" s="42">
+      <c r="AU103" s="37">
         <f>AU99+AU101</f>
         <v>185107700000</v>
       </c>
@@ -16382,10 +16730,10 @@
       <c r="AM104" s="11">
         <v>4835000000</v>
       </c>
-      <c r="AT104" s="34" t="s">
+      <c r="AT104" s="67" t="s">
         <v>143</v>
       </c>
-      <c r="AU104" s="34"/>
+      <c r="AU104" s="67"/>
     </row>
     <row r="105" spans="1:47" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -16543,35 +16891,35 @@
         <f>(AM22*(1-$AU$91))+AM77+AM88+AM81</f>
         <v>3352756756.7567568</v>
       </c>
-      <c r="AN105" s="31">
+      <c r="AN105" s="29">
         <f>AM105*(1+$AU$106)</f>
         <v>3786282943.1010356</v>
       </c>
-      <c r="AO105" s="31">
+      <c r="AO105" s="29">
         <f t="shared" ref="AO105:AR105" si="78">AN105*(1+$AU$106)</f>
         <v>4275865970.9884572</v>
       </c>
-      <c r="AP105" s="31">
+      <c r="AP105" s="29">
         <f t="shared" si="78"/>
         <v>4828754236.4393196</v>
       </c>
-      <c r="AQ105" s="31">
+      <c r="AQ105" s="29">
         <f t="shared" si="78"/>
         <v>5453133384.941083</v>
       </c>
-      <c r="AR105" s="31">
+      <c r="AR105" s="29">
         <f t="shared" si="78"/>
         <v>6158247501.9243355</v>
       </c>
-      <c r="AS105" s="29" t="s">
+      <c r="AS105" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="AT105" s="43" t="s">
+      <c r="AT105" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="AU105" s="44">
+      <c r="AU105" s="39">
         <f>(AU100*AU92)+(AU102*AU97)</f>
-        <v>0.11890612209525878</v>
+        <v>0.11996496110759106</v>
       </c>
     </row>
     <row r="106" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -16580,181 +16928,181 @@
       </c>
       <c r="B106" s="1"/>
       <c r="C106" s="15" t="e">
-        <f>(C107/B107)-1</f>
+        <f t="shared" ref="C106:AM106" si="79">(C107/B107)-1</f>
         <v>#VALUE!</v>
       </c>
       <c r="D106" s="15" t="e">
-        <f>(D107/C107)-1</f>
+        <f t="shared" si="79"/>
         <v>#VALUE!</v>
       </c>
       <c r="E106" s="15" t="e">
-        <f>(E107/D107)-1</f>
+        <f t="shared" si="79"/>
         <v>#VALUE!</v>
       </c>
       <c r="F106" s="15" t="e">
-        <f>(F107/E107)-1</f>
+        <f t="shared" si="79"/>
         <v>#VALUE!</v>
       </c>
       <c r="G106" s="15">
-        <f>(G107/F107)-1</f>
+        <f t="shared" si="79"/>
         <v>60.3125</v>
       </c>
       <c r="H106" s="15">
-        <f>(H107/G107)-1</f>
+        <f t="shared" si="79"/>
         <v>-1.3980632008154945</v>
       </c>
       <c r="I106" s="15">
-        <f>(I107/H107)-1</f>
+        <f t="shared" si="79"/>
         <v>1.1331626120358513</v>
       </c>
       <c r="J106" s="15">
-        <f>(J107/I107)-1</f>
+        <f t="shared" si="79"/>
         <v>-0.20432773109243696</v>
       </c>
       <c r="K106" s="15">
-        <f>(K107/J107)-1</f>
+        <f t="shared" si="79"/>
         <v>-0.8156971612640409</v>
       </c>
       <c r="L106" s="15">
-        <f>(L107/K107)-1</f>
+        <f t="shared" si="79"/>
         <v>-1.3649871065449632</v>
       </c>
       <c r="M106" s="15">
-        <f>(M107/L107)-1</f>
+        <f t="shared" si="79"/>
         <v>45.179320399237412</v>
       </c>
       <c r="N106" s="15">
-        <f>(N107/M107)-1</f>
+        <f t="shared" si="79"/>
         <v>-0.30476394005551499</v>
       </c>
       <c r="O106" s="15">
-        <f>(O107/N107)-1</f>
+        <f t="shared" si="79"/>
         <v>1.9752065249663797</v>
       </c>
       <c r="P106" s="15">
-        <f>(P107/O107)-1</f>
+        <f t="shared" si="79"/>
         <v>-0.57751800102611428</v>
       </c>
       <c r="Q106" s="15">
-        <f>(Q107/P107)-1</f>
+        <f t="shared" si="79"/>
         <v>-2.1117848448806731</v>
       </c>
       <c r="R106" s="15">
-        <f>(R107/Q107)-1</f>
+        <f t="shared" si="79"/>
         <v>-2.2778008288383766</v>
       </c>
       <c r="S106" s="15">
-        <f>(S107/R107)-1</f>
+        <f t="shared" si="79"/>
         <v>0.55325887093619186</v>
       </c>
       <c r="T106" s="15">
-        <f>(T107/S107)-1</f>
+        <f t="shared" si="79"/>
         <v>-0.65401728087530242</v>
       </c>
       <c r="U106" s="15">
-        <f>(U107/T107)-1</f>
+        <f t="shared" si="79"/>
         <v>0.28714010119025946</v>
       </c>
       <c r="V106" s="15">
-        <f>(V107/U107)-1</f>
+        <f t="shared" si="79"/>
         <v>-0.91426292927921815</v>
       </c>
       <c r="W106" s="15">
-        <f>(W107/V107)-1</f>
+        <f t="shared" si="79"/>
         <v>17.800712448050664</v>
       </c>
       <c r="X106" s="15">
-        <f>(X107/W107)-1</f>
+        <f t="shared" si="79"/>
         <v>2.5</v>
       </c>
       <c r="Y106" s="15">
-        <f>(Y107/X107)-1</f>
+        <f t="shared" si="79"/>
         <v>-0.3403508771929824</v>
       </c>
       <c r="Z106" s="15">
-        <f>(Z107/Y107)-1</f>
+        <f t="shared" si="79"/>
         <v>-1.0053191489361701</v>
       </c>
       <c r="AA106" s="15">
-        <f>(AA107/Z107)-1</f>
+        <f t="shared" si="79"/>
         <v>-81</v>
       </c>
       <c r="AB106" s="15">
-        <f>(AB107/AA107)-1</f>
+        <f t="shared" si="79"/>
         <v>-1.2357142857142858</v>
       </c>
       <c r="AC106" s="15">
-        <f>(AC107/AB107)-1</f>
+        <f t="shared" si="79"/>
         <v>-4.5681818181818183</v>
       </c>
       <c r="AD106" s="15">
-        <f>(AD107/AC107)-1</f>
+        <f t="shared" si="79"/>
         <v>-0.50743099787685775</v>
       </c>
       <c r="AE106" s="15">
-        <f>(AE107/AD107)-1</f>
+        <f t="shared" si="79"/>
         <v>-0.1681034482758621</v>
       </c>
       <c r="AF106" s="15">
-        <f>(AF107/AE107)-1</f>
+        <f t="shared" si="79"/>
         <v>0.66839378238341962</v>
       </c>
       <c r="AG106" s="15">
-        <f>(AG107/AF107)-1</f>
+        <f t="shared" si="79"/>
         <v>-1.0403726708074534</v>
       </c>
       <c r="AH106" s="15">
-        <f>(AH107/AG107)-1</f>
+        <f t="shared" si="79"/>
         <v>-4.4615384615384617</v>
       </c>
       <c r="AI106" s="15">
-        <f>(AI107/AH107)-1</f>
+        <f t="shared" si="79"/>
         <v>1.8666666666666667</v>
       </c>
       <c r="AJ106" s="15">
-        <f>(AJ107/AI107)-1</f>
+        <f t="shared" si="79"/>
         <v>-3.13953488372093</v>
       </c>
       <c r="AK106" s="15">
-        <f>(AK107/AJ107)-1</f>
+        <f t="shared" si="79"/>
         <v>1.8152173913043477</v>
       </c>
       <c r="AL106" s="15">
-        <f>(AL107/AK107)-1</f>
+        <f t="shared" si="79"/>
         <v>3.1441441441441444</v>
       </c>
       <c r="AM106" s="15">
-        <f>(AM107/AL107)-1</f>
+        <f t="shared" si="79"/>
         <v>0.10714285714285721</v>
       </c>
-      <c r="AN106" s="57">
+      <c r="AN106" s="51">
         <v>4684000000</v>
       </c>
-      <c r="AO106" s="57">
+      <c r="AO106" s="51">
         <v>6818000000</v>
       </c>
-      <c r="AP106" s="57">
+      <c r="AP106" s="51">
         <v>8557000000</v>
       </c>
-      <c r="AQ106" s="57">
+      <c r="AQ106" s="51">
         <v>12096000000</v>
       </c>
-      <c r="AR106" s="57">
+      <c r="AR106" s="51">
         <v>15131000000</v>
       </c>
-      <c r="AS106" s="29" t="s">
+      <c r="AS106" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="AT106" s="45" t="s">
+      <c r="AT106" s="40" t="s">
         <v>144</v>
       </c>
-      <c r="AU106" s="46">
+      <c r="AU106" s="41">
         <f>(SUM(AN4:AR4)/5)</f>
         <v>0.1293043956948563</v>
       </c>
     </row>
     <row r="107" spans="1:47" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="70" t="s">
+      <c r="A107" s="63" t="s">
         <v>165</v>
       </c>
       <c r="B107" s="1" t="s">
@@ -16871,139 +17219,139 @@
       <c r="AM107" s="1">
         <v>3565000000</v>
       </c>
-      <c r="AN107" s="29"/>
-      <c r="AO107" s="29"/>
-      <c r="AP107" s="29"/>
-      <c r="AQ107" s="29"/>
-      <c r="AR107" s="69">
+      <c r="AN107" s="27"/>
+      <c r="AO107" s="27"/>
+      <c r="AP107" s="27"/>
+      <c r="AQ107" s="27"/>
+      <c r="AR107" s="62">
         <f>AR106*(1+AU107)/(AU108-AU107)</f>
-        <v>186644128091.39847</v>
-      </c>
-      <c r="AS107" s="30" t="s">
+        <v>184318156518.29715</v>
+      </c>
+      <c r="AS107" s="28" t="s">
         <v>145</v>
       </c>
-      <c r="AT107" s="47" t="s">
+      <c r="AT107" s="42" t="s">
         <v>146</v>
       </c>
-      <c r="AU107" s="48">
+      <c r="AU107" s="43">
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="108" spans="1:47" ht="19" x14ac:dyDescent="0.25">
-      <c r="AN108" s="69">
-        <f t="shared" ref="AN108:AQ108" si="79">AN107+AN106</f>
+      <c r="AN108" s="62">
+        <f t="shared" ref="AN108:AQ108" si="80">AN107+AN106</f>
         <v>4684000000</v>
       </c>
-      <c r="AO108" s="69">
-        <f t="shared" si="79"/>
+      <c r="AO108" s="62">
+        <f t="shared" si="80"/>
         <v>6818000000</v>
       </c>
-      <c r="AP108" s="69">
-        <f t="shared" si="79"/>
+      <c r="AP108" s="62">
+        <f t="shared" si="80"/>
         <v>8557000000</v>
       </c>
-      <c r="AQ108" s="69">
-        <f t="shared" si="79"/>
+      <c r="AQ108" s="62">
+        <f t="shared" si="80"/>
         <v>12096000000</v>
       </c>
-      <c r="AR108" s="69">
+      <c r="AR108" s="62">
         <f>AR107+AR106</f>
-        <v>201775128091.39847</v>
-      </c>
-      <c r="AS108" s="30" t="s">
+        <v>199449156518.29715</v>
+      </c>
+      <c r="AS108" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="AT108" s="49" t="s">
+      <c r="AT108" s="44" t="s">
         <v>147</v>
       </c>
-      <c r="AU108" s="46">
+      <c r="AU108" s="41">
         <f>AU105</f>
-        <v>0.11890612209525878</v>
+        <v>0.11996496110759106</v>
       </c>
     </row>
     <row r="109" spans="1:47" ht="19" x14ac:dyDescent="0.25">
-      <c r="AN109" s="50" t="s">
+      <c r="AN109" s="64" t="s">
         <v>148</v>
       </c>
-      <c r="AO109" s="50"/>
+      <c r="AO109" s="64"/>
     </row>
     <row r="110" spans="1:47" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN110" s="51" t="s">
+      <c r="AN110" s="45" t="s">
         <v>149</v>
       </c>
-      <c r="AO110" s="41">
+      <c r="AO110" s="36">
         <f>NPV(AU108,AN108,AO108,AP108,AQ108,AR108)</f>
-        <v>138511428065.30292</v>
+        <v>136587857951.8215</v>
       </c>
     </row>
     <row r="111" spans="1:47" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN111" s="51" t="s">
+      <c r="AN111" s="45" t="s">
         <v>150</v>
       </c>
-      <c r="AO111" s="41">
+      <c r="AO111" s="36">
         <f>AM40</f>
         <v>5855000000</v>
       </c>
     </row>
     <row r="112" spans="1:47" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN112" s="51" t="s">
+      <c r="AN112" s="45" t="s">
         <v>138</v>
       </c>
-      <c r="AO112" s="41">
+      <c r="AO112" s="36">
         <f>AU99</f>
         <v>2863000000</v>
       </c>
     </row>
     <row r="113" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN113" s="51" t="s">
+      <c r="AN113" s="45" t="s">
         <v>151</v>
       </c>
-      <c r="AO113" s="41">
+      <c r="AO113" s="36">
         <f>AO110+AO111-AO112</f>
-        <v>141503428065.30292</v>
+        <v>139579857951.8215</v>
       </c>
     </row>
     <row r="114" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN114" s="51" t="s">
+      <c r="AN114" s="45" t="s">
         <v>166</v>
       </c>
-      <c r="AO114" s="71">
+      <c r="AO114" s="45">
         <f>AM34*(1+(5*0.05))</f>
         <v>1963750000</v>
       </c>
     </row>
     <row r="115" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN115" s="52" t="s">
+      <c r="AN115" s="46" t="s">
         <v>152</v>
       </c>
-      <c r="AO115" s="53">
+      <c r="AO115" s="47">
         <f>AO113/AO114</f>
-        <v>72.057760949867813</v>
+        <v>71.078221745039599</v>
       </c>
     </row>
     <row r="116" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN116" s="51" t="s">
+      <c r="AN116" s="45" t="s">
         <v>153</v>
       </c>
-      <c r="AO116" s="54" cm="1">
+      <c r="AO116" s="48" cm="1">
         <f t="array" ref="AO116">_FV(A1,"Price")</f>
         <v>113.17</v>
       </c>
     </row>
     <row r="117" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN117" s="52" t="s">
+      <c r="AN117" s="46" t="s">
         <v>154</v>
       </c>
-      <c r="AO117" s="55">
+      <c r="AO117" s="49">
         <f>AO115/AO116-1</f>
-        <v>-0.3632785990115065</v>
+        <v>-0.37193406605072366</v>
       </c>
     </row>
     <row r="118" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN118" s="52" t="s">
+      <c r="AN118" s="46" t="s">
         <v>155</v>
       </c>
-      <c r="AO118" s="56" t="str">
+      <c r="AO118" s="50" t="str">
         <f>IF(AO115&gt;AO116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>

--- a/Technology/Hardware/AMD.xlsx
+++ b/Technology/Hardware/AMD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8081A675-BA6A-094F-83F0-DE413C4CDB6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DB26473-F370-FC4E-B03D-281B71AFFA7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="22540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1261" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1262" uniqueCount="168">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -575,6 +575,9 @@
   <si>
     <t>Shares (5% dilution)</t>
   </si>
+  <si>
+    <t>5Y Fwd FCF CAGR</t>
+  </si>
 </sst>
 </file>
 
@@ -874,7 +877,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -995,6 +998,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment indent="1"/>
     </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1007,7 +1011,7 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1068,7 +1072,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.46260720875237132"/>
-          <c:y val="3.8235294117647062E-2"/>
+          <c:y val="2.74245584166844E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1106,8 +1110,8 @@
           <c:yMode val="edge"/>
           <c:x val="9.2132013201320126E-2"/>
           <c:y val="0.16626470588235295"/>
-          <c:w val="0.82733993399339945"/>
-          <c:h val="0.58999930523390454"/>
+          <c:w val="0.84714191419141915"/>
+          <c:h val="0.58639568702560818"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -2044,7 +2048,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx2"/>
                 </a:solidFill>
@@ -2721,8 +2725,8 @@
     <xdr:to>
       <xdr:col>47</xdr:col>
       <xdr:colOff>15875</xdr:colOff>
-      <xdr:row>126</xdr:row>
-      <xdr:rowOff>174625</xdr:rowOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2766,20 +2770,23 @@
       <sheetName val="Industrials"/>
       <sheetName val="Real Estate"/>
       <sheetName val="Fashion + Beauty"/>
-      <sheetName val="My Stocks"/>
-      <sheetName val="Profitable Software"/>
-      <sheetName val="Compounders"/>
-      <sheetName val="GARP"/>
-      <sheetName val="Value"/>
-      <sheetName val="Aggressive Growth"/>
-      <sheetName val="Other"/>
-      <sheetName val="Short List"/>
+      <sheetName val="Full Portfolio"/>
+      <sheetName val="Fidelity Growth"/>
+      <sheetName val="IRA"/>
+      <sheetName val="Best Mature"/>
+      <sheetName val="To Be Modeled"/>
+      <sheetName val="Hedge Fund Portfolio"/>
+      <sheetName val="Scored Portfolio"/>
+      <sheetName val="GARP HF Buys"/>
+      <sheetName val="Value HF Buys"/>
+      <sheetName val="Aggressive Growth HF Buys"/>
+      <sheetName val="Other HF Buys"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="8">
           <cell r="C8">
-            <v>3.9120000000000002E-2</v>
+            <v>4.2480000000000004E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2799,6 +2806,9 @@
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2926,11 +2936,9 @@
     <v>Powered by Refinitiv</v>
     <v>132.83000000000001</v>
     <v>54.57</v>
-    <v>1.8337000000000001</v>
-    <v>-0.31</v>
-    <v>-2.7320000000000001E-3</v>
-    <v>-0.17</v>
-    <v>-1.5020000000000001E-3</v>
+    <v>1.8026</v>
+    <v>-5.08</v>
+    <v>-4.7641000000000003E-2</v>
     <v>USD</v>
     <v>Advanced Micro Devices, Inc. is a global semiconductor company. The Company operates through four segments: Data Center, Client, Gaming, and Embedded. The Data Center segment includes server central processing units (CPUs) and graphics processing units (GPUs), data processing units (DPUs), field programmable gate arrays (FPGAs) and adaptive system-on-a-chip (SoC) products for data centers. The Client segment includes CPUs, accelerated processing units (APUs) that integrate microprocessors and GPUs (APUs), and chipsets for desktop and notebook personal computers. The Gaming segment includes discrete GPUs, semi-custom SoC products and development services. The Embedded segment, which primarily includes embedded CPUs and GPUs, FPGAs, and adaptive SoC products. The Company’s CPUs for desktop platforms include the AMD Ryzen and AMD Athlon series processors. Its mobile APUs include AMD Ryzen and AMD Athlon mobile processors for the commercial and consumer markets.</v>
     <v>25000</v>
@@ -2938,25 +2946,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>2485 Augustine Drive, SANTA CLARA, CA, 95054 US</v>
-    <v>115.33</v>
+    <v>106.75</v>
     <v>Semiconductors &amp; Semiconductor Equipment</v>
     <v>Stock</v>
-    <v>45114.999995983591</v>
+    <v>45184.831442128903</v>
     <v>0</v>
-    <v>113.04</v>
-    <v>182244700000</v>
+    <v>101.28</v>
+    <v>164071390050</v>
     <v>ADVANCED MICRO DEVICES, INC.</v>
     <v>ADVANCED MICRO DEVICES, INC.</v>
-    <v>114.16</v>
-    <v>577.50639999999999</v>
-    <v>113.48</v>
-    <v>113.17</v>
-    <v>113</v>
-    <v>1610362000</v>
+    <v>106.07</v>
+    <v>582.18830000000003</v>
+    <v>106.63</v>
+    <v>101.55</v>
+    <v>1615671000</v>
     <v>AMD</v>
     <v>ADVANCED MICRO DEVICES, INC. (XNAS:AMD)</v>
-    <v>37211287</v>
-    <v>70183544</v>
+    <v>58424439</v>
+    <v>56097317</v>
     <v>1969</v>
   </rv>
   <rv s="2">
@@ -2988,8 +2995,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -3010,7 +3015,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -3027,7 +3031,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="45">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -3038,16 +3042,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -3113,19 +3114,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -3170,9 +3165,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -3180,9 +3172,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -3544,10 +3533,10 @@
   <dimension ref="A1:AV118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AJ2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AE72" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AP12" sqref="AP12"/>
+      <selection pane="bottomRight" activeCell="AO98" sqref="AO98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3944,19 +3933,19 @@
         <v>23601000000</v>
       </c>
       <c r="AN3" s="24">
-        <v>22691000000</v>
+        <v>22811000000</v>
       </c>
       <c r="AO3" s="24">
-        <v>26990000000</v>
+        <v>27300000000</v>
       </c>
       <c r="AP3" s="24">
-        <v>30530000000</v>
+        <v>30500000000</v>
       </c>
       <c r="AQ3" s="24">
-        <v>38364000000</v>
+        <v>34983000000</v>
       </c>
       <c r="AR3" s="24">
-        <v>42502000000</v>
+        <v>41209000000</v>
       </c>
       <c r="AS3" s="18" t="s">
         <v>107</v>
@@ -3976,173 +3965,173 @@
         <v>93</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="68" t="e">
+      <c r="C4" s="64" t="e">
         <f>(C3/B3)-1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D4" s="68">
+      <c r="D4" s="64">
         <f>(D3/C3)-1</f>
         <v>0.73077590696059702</v>
       </c>
-      <c r="E4" s="68">
+      <c r="E4" s="64">
         <f>(E3/D3)-1</f>
         <v>0.12917460635843958</v>
       </c>
-      <c r="F4" s="68">
+      <c r="F4" s="64">
         <f t="shared" ref="F4:Z4" si="0">(F3/E3)-1</f>
         <v>-1.8918198774313888E-2</v>
       </c>
-      <c r="G4" s="68">
+      <c r="G4" s="64">
         <f t="shared" si="0"/>
         <v>-4.1100850986782511E-2</v>
       </c>
-      <c r="H4" s="68">
+      <c r="H4" s="64">
         <f t="shared" si="0"/>
         <v>0.15804380664652573</v>
       </c>
-      <c r="I4" s="68">
+      <c r="I4" s="64">
         <f t="shared" si="0"/>
         <v>0.23471384314364907</v>
       </c>
-      <c r="J4" s="68">
+      <c r="J4" s="64">
         <f t="shared" si="0"/>
         <v>8.8332783096731537E-2</v>
       </c>
-      <c r="K4" s="68">
+      <c r="K4" s="64">
         <f t="shared" si="0"/>
         <v>0.29510762734486851</v>
       </c>
-      <c r="L4" s="68">
+      <c r="L4" s="64">
         <f t="shared" si="0"/>
         <v>0.13820396308614802</v>
       </c>
-      <c r="M4" s="68">
+      <c r="M4" s="64">
         <f t="shared" si="0"/>
         <v>-0.19619718124363095</v>
       </c>
-      <c r="N4" s="68">
+      <c r="N4" s="64">
         <f t="shared" si="0"/>
         <v>0.20652948076798028</v>
       </c>
-      <c r="O4" s="68">
+      <c r="O4" s="64">
         <f t="shared" si="0"/>
         <v>7.8835499443000279E-2</v>
       </c>
-      <c r="P4" s="68">
+      <c r="P4" s="64">
         <f t="shared" si="0"/>
         <v>0.12409343148157403</v>
       </c>
-      <c r="Q4" s="68">
+      <c r="Q4" s="64">
         <f t="shared" si="0"/>
         <v>0.62520314221284679</v>
       </c>
-      <c r="R4" s="68">
+      <c r="R4" s="64">
         <f t="shared" si="0"/>
         <v>-0.1620160859155757</v>
       </c>
-      <c r="S4" s="68">
+      <c r="S4" s="64">
         <f t="shared" si="0"/>
         <v>-0.30698882817362039</v>
       </c>
-      <c r="T4" s="68">
+      <c r="T4" s="64">
         <f t="shared" si="0"/>
         <v>0.30483135331507372</v>
       </c>
-      <c r="U4" s="68">
+      <c r="U4" s="64">
         <f t="shared" si="0"/>
         <v>0.42119813546838336</v>
       </c>
-      <c r="V4" s="68">
+      <c r="V4" s="64">
         <f t="shared" si="0"/>
         <v>0.16917984538437469</v>
       </c>
-      <c r="W4" s="68">
+      <c r="W4" s="64">
         <f t="shared" si="0"/>
         <v>-3.3958851674804835E-2</v>
       </c>
-      <c r="X4" s="68">
+      <c r="X4" s="64">
         <f t="shared" si="0"/>
         <v>6.4436183395291113E-2</v>
       </c>
-      <c r="Y4" s="68">
+      <c r="Y4" s="64">
         <f t="shared" si="0"/>
         <v>-3.4092798935639435E-2</v>
       </c>
-      <c r="Z4" s="68">
+      <c r="Z4" s="64">
         <f t="shared" si="0"/>
         <v>-6.973140495867769E-2</v>
       </c>
-      <c r="AA4" s="68">
+      <c r="AA4" s="64">
         <f t="shared" ref="AA4" si="1">(AA3/Z3)-1</f>
         <v>0.20192485656116976</v>
       </c>
-      <c r="AB4" s="68">
+      <c r="AB4" s="64">
         <f t="shared" ref="AB4" si="2">(AB3/AA3)-1</f>
         <v>1.1395133969818394E-2</v>
       </c>
-      <c r="AC4" s="68">
+      <c r="AC4" s="64">
         <f t="shared" ref="AC4" si="3">(AC3/AB3)-1</f>
         <v>-0.17448233861144946</v>
       </c>
-      <c r="AD4" s="68">
+      <c r="AD4" s="64">
         <f t="shared" ref="AD4" si="4">(AD3/AC3)-1</f>
         <v>-2.2685355957211328E-2</v>
       </c>
-      <c r="AE4" s="68">
+      <c r="AE4" s="64">
         <f t="shared" ref="AE4" si="5">(AE3/AD3)-1</f>
         <v>3.9063974334780038E-2</v>
       </c>
-      <c r="AF4" s="68">
+      <c r="AF4" s="64">
         <f t="shared" ref="AF4" si="6">(AF3/AE3)-1</f>
         <v>-0.27515437704322554</v>
       </c>
-      <c r="AG4" s="68">
+      <c r="AG4" s="64">
         <f t="shared" ref="AG4" si="7">(AG3/AF3)-1</f>
         <v>7.0408418942620843E-2</v>
       </c>
-      <c r="AH4" s="68">
+      <c r="AH4" s="64">
         <f t="shared" ref="AH4" si="8">(AH3/AG3)-1</f>
         <v>0.24742509363295873</v>
       </c>
-      <c r="AI4" s="68">
+      <c r="AI4" s="64">
         <f t="shared" ref="AI4" si="9">(AI3/AH3)-1</f>
         <v>0.21504972790392185</v>
       </c>
-      <c r="AJ4" s="68">
+      <c r="AJ4" s="64">
         <f t="shared" ref="AJ4" si="10">(AJ3/AI3)-1</f>
         <v>3.9536679536679609E-2</v>
       </c>
-      <c r="AK4" s="68">
+      <c r="AK4" s="64">
         <f t="shared" ref="AK4" si="11">(AK3/AJ3)-1</f>
         <v>0.45045312732134901</v>
       </c>
-      <c r="AL4" s="68">
+      <c r="AL4" s="64">
         <f t="shared" ref="AL4" si="12">(AL3/AK3)-1</f>
         <v>0.68329406944586712</v>
       </c>
-      <c r="AM4" s="68">
+      <c r="AM4" s="64">
         <f t="shared" ref="AM4:AR4" si="13">(AM3/AL3)-1</f>
         <v>0.43610806863818907</v>
       </c>
       <c r="AN4" s="16">
         <f t="shared" si="13"/>
-        <v>-3.8557688233549436E-2</v>
+        <v>-3.3473157917037422E-2</v>
       </c>
       <c r="AO4" s="16">
         <f t="shared" si="13"/>
-        <v>0.18945837556740552</v>
+        <v>0.19679102187541098</v>
       </c>
       <c r="AP4" s="16">
         <f t="shared" si="13"/>
-        <v>0.13115968877361994</v>
+        <v>0.11721611721611724</v>
       </c>
       <c r="AQ4" s="16">
         <f t="shared" si="13"/>
-        <v>0.25660006550933501</v>
+        <v>0.14698360655737708</v>
       </c>
       <c r="AR4" s="16">
         <f t="shared" si="13"/>
-        <v>0.10786153685747046</v>
+        <v>0.17797215790526821</v>
       </c>
       <c r="AS4" s="17">
         <f>(AM4+AL4+AK4)/3</f>
@@ -5766,15 +5755,15 @@
       </c>
       <c r="AT16" s="52">
         <f>AU101/AM3</f>
-        <v>7.7219058514469729</v>
+        <v>6.951882973179103</v>
       </c>
       <c r="AU16" s="52">
         <f>AU101/AM28</f>
-        <v>138.06416666666667</v>
+        <v>124.29650761363636</v>
       </c>
       <c r="AV16" s="54">
         <f>AU101/AM107</f>
-        <v>51.120532959326788</v>
+        <v>46.022830308555399</v>
       </c>
     </row>
     <row r="17" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -6146,19 +6135,19 @@
         <v>3386000000</v>
       </c>
       <c r="AN19" s="57">
-        <v>5826000000</v>
+        <v>4050000000</v>
       </c>
       <c r="AO19" s="57">
-        <v>8712000000</v>
+        <v>7106000000</v>
       </c>
       <c r="AP19" s="57">
-        <v>10619000000</v>
+        <v>9588000000</v>
       </c>
       <c r="AQ19" s="57">
-        <v>15262000000</v>
+        <v>11053000000</v>
       </c>
       <c r="AR19" s="57">
-        <v>17971000000</v>
+        <v>14058000000</v>
       </c>
       <c r="AS19" s="26">
         <f>AM40-AM56-AM61</f>
@@ -6166,15 +6155,15 @@
       </c>
       <c r="AT19" s="52">
         <f>AU101/AN3</f>
-        <v>8.0315852099951517</v>
+        <v>7.1926434636798033</v>
       </c>
       <c r="AU19" s="53">
         <f>AO116/AN31</f>
-        <v>39.159169550173011</v>
+        <v>36.660649819494587</v>
       </c>
       <c r="AV19" s="54">
         <f>AU101/AN106</f>
-        <v>38.907920580700257</v>
+        <v>27.038792031970996</v>
       </c>
     </row>
     <row r="20" spans="1:48" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -6332,23 +6321,23 @@
       </c>
       <c r="AN20" s="16">
         <f t="shared" si="34"/>
-        <v>0.72061429415239231</v>
+        <v>0.1961015948021263</v>
       </c>
       <c r="AO20" s="16">
         <f t="shared" si="34"/>
-        <v>0.4953656024716786</v>
+        <v>0.75456790123456785</v>
       </c>
       <c r="AP20" s="16">
         <f t="shared" si="34"/>
-        <v>0.21889348025711652</v>
+        <v>0.34928229665071764</v>
       </c>
       <c r="AQ20" s="16">
         <f t="shared" si="34"/>
-        <v>0.43723514455221779</v>
+        <v>0.15279516061743847</v>
       </c>
       <c r="AR20" s="16">
         <f t="shared" si="34"/>
-        <v>0.17749967238893993</v>
+        <v>0.27187188998461953</v>
       </c>
     </row>
     <row r="21" spans="1:48" ht="20" x14ac:dyDescent="0.25">
@@ -6471,23 +6460,23 @@
       </c>
       <c r="AN21" s="58">
         <f>AN19/AN3</f>
-        <v>0.25675377903133401</v>
+        <v>0.17754592082767087</v>
       </c>
       <c r="AO21" s="58">
         <f t="shared" ref="AO21:AR21" si="35">AO19/AO3</f>
-        <v>0.32278621711745092</v>
+        <v>0.26029304029304029</v>
       </c>
       <c r="AP21" s="58">
         <f t="shared" si="35"/>
-        <v>0.34782181460858175</v>
+        <v>0.31436065573770494</v>
       </c>
       <c r="AQ21" s="58">
         <f t="shared" si="35"/>
-        <v>0.397820873735794</v>
+        <v>0.31595346311065375</v>
       </c>
       <c r="AR21" s="58">
         <f t="shared" si="35"/>
-        <v>0.42282716107477297</v>
+        <v>0.34113907156203743</v>
       </c>
       <c r="AU21" s="18" t="s">
         <v>161</v>
@@ -6620,7 +6609,7 @@
       </c>
       <c r="AV22" s="56">
         <f>AM107/AU101</f>
-        <v>1.9561611393911594E-2</v>
+        <v>2.1728346416237363E-2</v>
       </c>
     </row>
     <row r="23" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -7337,19 +7326,19 @@
         <v>1320000000</v>
       </c>
       <c r="AN28" s="59">
-        <v>4657000000</v>
+        <v>4472000000</v>
       </c>
       <c r="AO28" s="59">
-        <v>6553000000</v>
+        <v>6551000000</v>
       </c>
       <c r="AP28" s="59">
-        <v>8168000000</v>
+        <v>8358000000</v>
       </c>
       <c r="AQ28" s="59">
-        <v>13390000000</v>
+        <v>10684000000</v>
       </c>
       <c r="AR28" s="59">
-        <v>14979000000</v>
+        <v>14542000000</v>
       </c>
     </row>
     <row r="29" spans="1:48" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -7507,23 +7496,23 @@
       </c>
       <c r="AN29" s="16">
         <f t="shared" si="54"/>
-        <v>2.5280303030303028</v>
+        <v>2.3878787878787877</v>
       </c>
       <c r="AO29" s="16">
         <f t="shared" si="54"/>
-        <v>0.40712905303843683</v>
+        <v>0.46489266547406083</v>
       </c>
       <c r="AP29" s="16">
         <f t="shared" si="54"/>
-        <v>0.24645200671448197</v>
+        <v>0.27583575026713469</v>
       </c>
       <c r="AQ29" s="16">
         <f t="shared" si="54"/>
-        <v>0.63932419196865808</v>
+        <v>0.27829624312036372</v>
       </c>
       <c r="AR29" s="16">
         <f t="shared" si="54"/>
-        <v>0.11867064973861097</v>
+        <v>0.36110071134406585</v>
       </c>
     </row>
     <row r="30" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -7646,23 +7635,23 @@
       </c>
       <c r="AN30" s="60">
         <f>AN28/AN3</f>
-        <v>0.20523555594729187</v>
+        <v>0.19604576739292445</v>
       </c>
       <c r="AO30" s="60">
         <f t="shared" ref="AO30:AR30" si="55">AO28/AO3</f>
-        <v>0.24279362726935902</v>
+        <v>0.23996336996336998</v>
       </c>
       <c r="AP30" s="60">
         <f t="shared" si="55"/>
-        <v>0.26754012446773667</v>
+        <v>0.2740327868852459</v>
       </c>
       <c r="AQ30" s="60">
         <f t="shared" si="55"/>
-        <v>0.34902512772390781</v>
+        <v>0.30540548266300777</v>
       </c>
       <c r="AR30" s="60">
         <f t="shared" si="55"/>
-        <v>0.35243047386005366</v>
+        <v>0.35288407872066779</v>
       </c>
     </row>
     <row r="31" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -7784,19 +7773,19 @@
         <v>0.85</v>
       </c>
       <c r="AN31" s="61">
-        <v>2.89</v>
+        <v>2.77</v>
       </c>
       <c r="AO31" s="61">
-        <v>4.07</v>
+        <v>4.05</v>
       </c>
       <c r="AP31" s="61">
-        <v>5.07</v>
+        <v>5.17</v>
       </c>
       <c r="AQ31" s="61">
-        <v>8.31</v>
+        <v>6.61</v>
       </c>
       <c r="AR31" s="61">
-        <v>9.3000000000000007</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -14059,10 +14048,10 @@
       <c r="AM83" s="1">
         <v>-1401000000</v>
       </c>
-      <c r="AT83" s="65" t="s">
+      <c r="AT83" s="66" t="s">
         <v>124</v>
       </c>
-      <c r="AU83" s="66"/>
+      <c r="AU83" s="67"/>
     </row>
     <row r="84" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -14182,10 +14171,10 @@
       <c r="AM84" s="1">
         <v>931000000</v>
       </c>
-      <c r="AT84" s="67" t="s">
+      <c r="AT84" s="68" t="s">
         <v>125</v>
       </c>
-      <c r="AU84" s="67"/>
+      <c r="AU84" s="68"/>
     </row>
     <row r="85" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -15351,10 +15340,10 @@
       <c r="AM93" s="1">
         <v>2183000000</v>
       </c>
-      <c r="AT93" s="67" t="s">
+      <c r="AT93" s="68" t="s">
         <v>132</v>
       </c>
-      <c r="AU93" s="67"/>
+      <c r="AU93" s="68"/>
     </row>
     <row r="94" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -15479,7 +15468,7 @@
       </c>
       <c r="AU94" s="34">
         <f>[1]Treasuries!$C$8</f>
-        <v>3.9120000000000002E-2</v>
+        <v>4.2480000000000004E-2</v>
       </c>
     </row>
     <row r="95" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15605,7 +15594,7 @@
       </c>
       <c r="AU95" s="35" cm="1">
         <f t="array" ref="AU95">_FV(A1,"Beta")</f>
-        <v>1.8337000000000001</v>
+        <v>1.8026</v>
       </c>
     </row>
     <row r="96" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15856,7 +15845,7 @@
       </c>
       <c r="AU97" s="33">
         <f>(AU94)+((AU95)*(AU96-AU94))</f>
-        <v>0.12141645600000001</v>
+        <v>0.11732395200000001</v>
       </c>
     </row>
     <row r="98" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -15977,10 +15966,10 @@
       <c r="AM98" s="1">
         <v>0</v>
       </c>
-      <c r="AT98" s="67" t="s">
+      <c r="AT98" s="68" t="s">
         <v>137</v>
       </c>
-      <c r="AU98" s="67"/>
+      <c r="AU98" s="68"/>
     </row>
     <row r="99" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -16231,7 +16220,7 @@
       </c>
       <c r="AU100" s="33">
         <f>AU99/AU103</f>
-        <v>1.5466671564716108E-2</v>
+        <v>1.7150450540134227E-2</v>
       </c>
     </row>
     <row r="101" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -16357,7 +16346,7 @@
       </c>
       <c r="AU101" s="36" cm="1">
         <f t="array" ref="AU101">_FV(A1,"Market cap",TRUE)</f>
-        <v>182244700000</v>
+        <v>164071390050</v>
       </c>
     </row>
     <row r="102" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -16483,7 +16472,7 @@
       </c>
       <c r="AU102" s="33">
         <f>AU101/AU103</f>
-        <v>0.98453332843528385</v>
+        <v>0.9828495494598658</v>
       </c>
     </row>
     <row r="103" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -16604,12 +16593,15 @@
       <c r="AM103" s="1">
         <v>2535000000</v>
       </c>
+      <c r="AS103" s="27" t="s">
+        <v>167</v>
+      </c>
       <c r="AT103" s="32" t="s">
         <v>142</v>
       </c>
       <c r="AU103" s="37">
         <f>AU99+AU101</f>
-        <v>185107700000</v>
+        <v>166934390050</v>
       </c>
     </row>
     <row r="104" spans="1:47" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -16730,10 +16722,34 @@
       <c r="AM104" s="11">
         <v>4835000000</v>
       </c>
-      <c r="AT104" s="67" t="s">
+      <c r="AN104" s="69">
+        <f>(AN106/AM105)-1</f>
+        <v>0.80985393222197133</v>
+      </c>
+      <c r="AO104" s="69">
+        <f>(AO106/AN106)-1</f>
+        <v>0.30405405405405395</v>
+      </c>
+      <c r="AP104" s="69">
+        <f>(AP106/AO106)-1</f>
+        <v>-4.0313408315430288E-2</v>
+      </c>
+      <c r="AQ104" s="69">
+        <f>(AQ106/AP106)-1</f>
+        <v>0.10192257045035547</v>
+      </c>
+      <c r="AR104" s="69">
+        <f>(AR106/AQ106)-1</f>
+        <v>0.30688336520076476</v>
+      </c>
+      <c r="AS104" s="69">
+        <f>SUM(AN104:AR104)/5</f>
+        <v>0.29648010272234304</v>
+      </c>
+      <c r="AT104" s="68" t="s">
         <v>143</v>
       </c>
-      <c r="AU104" s="67"/>
+      <c r="AU104" s="68"/>
     </row>
     <row r="105" spans="1:47" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -16893,23 +16909,23 @@
       </c>
       <c r="AN105" s="29">
         <f>AM105*(1+$AU$106)</f>
-        <v>3786282943.1010356</v>
+        <v>3758768723.9231238</v>
       </c>
       <c r="AO105" s="29">
         <f t="shared" ref="AO105:AR105" si="78">AN105*(1+$AU$106)</f>
-        <v>4275865970.9884572</v>
+        <v>4213947907.6345305</v>
       </c>
       <c r="AP105" s="29">
         <f t="shared" si="78"/>
-        <v>4828754236.4393196</v>
+        <v>4724248356.9788847</v>
       </c>
       <c r="AQ105" s="29">
         <f t="shared" si="78"/>
-        <v>5453133384.941083</v>
+        <v>5296345144.1776447</v>
       </c>
       <c r="AR105" s="29">
         <f t="shared" si="78"/>
-        <v>6158247501.9243355</v>
+        <v>5937721679.0085649</v>
       </c>
       <c r="AS105" s="27" t="s">
         <v>156</v>
@@ -16919,7 +16935,7 @@
       </c>
       <c r="AU105" s="39">
         <f>(AU100*AU92)+(AU102*AU97)</f>
-        <v>0.11996496110759106</v>
+        <v>0.11578462842463245</v>
       </c>
     </row>
     <row r="106" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -17076,19 +17092,19 @@
         <v>0.10714285714285721</v>
       </c>
       <c r="AN106" s="51">
-        <v>4684000000</v>
+        <v>6068000000</v>
       </c>
       <c r="AO106" s="51">
-        <v>6818000000</v>
+        <v>7913000000</v>
       </c>
       <c r="AP106" s="51">
-        <v>8557000000</v>
+        <v>7594000000</v>
       </c>
       <c r="AQ106" s="51">
-        <v>12096000000</v>
+        <v>8368000000</v>
       </c>
       <c r="AR106" s="51">
-        <v>15131000000</v>
+        <v>10936000000</v>
       </c>
       <c r="AS106" s="27" t="s">
         <v>157</v>
@@ -17098,7 +17114,7 @@
       </c>
       <c r="AU106" s="41">
         <f>(SUM(AN4:AR4)/5)</f>
-        <v>0.1293043956948563</v>
+        <v>0.12109794912742722</v>
       </c>
     </row>
     <row r="107" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -17225,7 +17241,7 @@
       <c r="AQ107" s="27"/>
       <c r="AR107" s="62">
         <f>AR106*(1+AU107)/(AU108-AU107)</f>
-        <v>184318156518.29715</v>
+        <v>140110318271.25098</v>
       </c>
       <c r="AS107" s="28" t="s">
         <v>145</v>
@@ -17240,23 +17256,23 @@
     <row r="108" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="AN108" s="62">
         <f t="shared" ref="AN108:AQ108" si="80">AN107+AN106</f>
-        <v>4684000000</v>
+        <v>6068000000</v>
       </c>
       <c r="AO108" s="62">
         <f t="shared" si="80"/>
-        <v>6818000000</v>
+        <v>7913000000</v>
       </c>
       <c r="AP108" s="62">
         <f t="shared" si="80"/>
-        <v>8557000000</v>
+        <v>7594000000</v>
       </c>
       <c r="AQ108" s="62">
         <f t="shared" si="80"/>
-        <v>12096000000</v>
+        <v>8368000000</v>
       </c>
       <c r="AR108" s="62">
         <f>AR107+AR106</f>
-        <v>199449156518.29715</v>
+        <v>151046318271.25098</v>
       </c>
       <c r="AS108" s="28" t="s">
         <v>142</v>
@@ -17266,14 +17282,14 @@
       </c>
       <c r="AU108" s="41">
         <f>AU105</f>
-        <v>0.11996496110759106</v>
+        <v>0.11578462842463245</v>
       </c>
     </row>
     <row r="109" spans="1:47" ht="19" x14ac:dyDescent="0.25">
-      <c r="AN109" s="64" t="s">
+      <c r="AN109" s="65" t="s">
         <v>148</v>
       </c>
-      <c r="AO109" s="64"/>
+      <c r="AO109" s="65"/>
     </row>
     <row r="110" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="AN110" s="45" t="s">
@@ -17281,7 +17297,7 @@
       </c>
       <c r="AO110" s="36">
         <f>NPV(AU108,AN108,AO108,AP108,AQ108,AR108)</f>
-        <v>136587857951.8215</v>
+        <v>109998876189.21814</v>
       </c>
     </row>
     <row r="111" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -17308,7 +17324,7 @@
       </c>
       <c r="AO113" s="36">
         <f>AO110+AO111-AO112</f>
-        <v>139579857951.8215</v>
+        <v>112990876189.21814</v>
       </c>
     </row>
     <row r="114" spans="40:41" ht="20" x14ac:dyDescent="0.25">
@@ -17326,7 +17342,7 @@
       </c>
       <c r="AO115" s="47">
         <f>AO113/AO114</f>
-        <v>71.078221745039599</v>
+        <v>57.53832014727849</v>
       </c>
     </row>
     <row r="116" spans="40:41" ht="20" x14ac:dyDescent="0.25">
@@ -17335,7 +17351,7 @@
       </c>
       <c r="AO116" s="48" cm="1">
         <f t="array" ref="AO116">_FV(A1,"Price")</f>
-        <v>113.17</v>
+        <v>101.55</v>
       </c>
     </row>
     <row r="117" spans="40:41" ht="20" x14ac:dyDescent="0.25">
@@ -17344,7 +17360,7 @@
       </c>
       <c r="AO117" s="49">
         <f>AO115/AO116-1</f>
-        <v>-0.37193406605072366</v>
+        <v>-0.43339911228677019</v>
       </c>
     </row>
     <row r="118" spans="40:41" ht="20" x14ac:dyDescent="0.25">
